--- a/Practica/AltaEnElCielo/PreparacionDeLaPrueba/Documentacion/PruebaCasoFatiga.xlsx
+++ b/Practica/AltaEnElCielo/PreparacionDeLaPrueba/Documentacion/PruebaCasoFatiga.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>SUMA</t>
   </si>
@@ -32,17 +32,50 @@
     <t>ACUMULADO</t>
   </si>
   <si>
-    <t>M</t>
+    <t>METROS RESTANTES</t>
+  </si>
+  <si>
+    <t>***END***</t>
+  </si>
+  <si>
+    <t>MAXIMA ESCUELA</t>
+  </si>
+  <si>
+    <t>MAYOR S.</t>
+  </si>
+  <si>
+    <t>METROS INICIALES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -68,8 +101,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -350,15 +386,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CY19"/>
+  <dimension ref="A1:DD22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CN1" workbookViewId="0">
-      <selection activeCell="CV7" sqref="CV7:CV9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="CX12" sqref="CX12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="107" max="107" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -665,8 +704,17 @@
       <c r="CY1" t="s">
         <v>1</v>
       </c>
+      <c r="DA1" t="s">
+        <v>2</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>6</v>
+      </c>
+      <c r="DD1">
+        <v>1000000</v>
+      </c>
     </row>
-    <row r="2" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
@@ -975,2709 +1023,4738 @@
         <f>CX2</f>
         <v>60972</v>
       </c>
+      <c r="DA2">
+        <f>$DD$1-CY2</f>
+        <v>939028</v>
+      </c>
     </row>
-    <row r="3" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D3">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="F3">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="G3">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="H3">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="I3">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="J3">
-        <v>150</v>
+        <v>79</v>
       </c>
       <c r="K3">
-        <v>174</v>
+        <v>95</v>
       </c>
       <c r="L3">
-        <v>204</v>
+        <v>109</v>
       </c>
       <c r="M3">
-        <v>228</v>
+        <v>119</v>
       </c>
       <c r="N3">
-        <v>249</v>
+        <v>130</v>
       </c>
       <c r="O3">
-        <v>264</v>
+        <v>134</v>
       </c>
       <c r="P3">
-        <v>276</v>
+        <v>142</v>
       </c>
       <c r="Q3">
-        <v>291</v>
+        <v>149</v>
       </c>
       <c r="R3">
-        <v>312</v>
+        <v>163</v>
       </c>
       <c r="S3">
-        <v>336</v>
+        <v>173</v>
       </c>
       <c r="T3">
-        <v>357</v>
+        <v>184</v>
       </c>
       <c r="U3">
-        <v>381</v>
+        <v>197</v>
       </c>
       <c r="V3">
-        <v>411</v>
+        <v>214</v>
       </c>
       <c r="W3">
-        <v>435</v>
+        <v>221</v>
       </c>
       <c r="X3">
-        <v>447</v>
+        <v>226</v>
       </c>
       <c r="Y3">
-        <v>462</v>
+        <v>236</v>
       </c>
       <c r="Z3">
-        <v>483</v>
+        <v>247</v>
       </c>
       <c r="AA3">
-        <v>507</v>
+        <v>260</v>
       </c>
       <c r="AB3">
-        <v>528</v>
+        <v>268</v>
       </c>
       <c r="AC3">
-        <v>552</v>
+        <v>284</v>
       </c>
       <c r="AD3">
-        <v>582</v>
+        <v>298</v>
       </c>
       <c r="AE3">
-        <v>615</v>
+        <v>317</v>
       </c>
       <c r="AF3">
-        <v>645</v>
+        <v>328</v>
       </c>
       <c r="AG3">
-        <v>669</v>
+        <v>341</v>
       </c>
       <c r="AH3">
-        <v>690</v>
+        <v>349</v>
       </c>
       <c r="AI3">
-        <v>714</v>
+        <v>365</v>
       </c>
       <c r="AJ3">
-        <v>744</v>
+        <v>379</v>
       </c>
       <c r="AK3">
-        <v>777</v>
+        <v>398</v>
       </c>
       <c r="AL3">
-        <v>816</v>
+        <v>418</v>
       </c>
       <c r="AM3">
-        <v>849</v>
+        <v>431</v>
       </c>
       <c r="AN3">
-        <v>870</v>
+        <v>439</v>
       </c>
       <c r="AO3">
-        <v>894</v>
+        <v>455</v>
       </c>
       <c r="AP3">
-        <v>924</v>
+        <v>469</v>
       </c>
       <c r="AQ3">
-        <v>957</v>
+        <v>488</v>
       </c>
       <c r="AR3">
-        <v>996</v>
+        <v>508</v>
       </c>
       <c r="AS3">
-        <v>1029</v>
+        <v>521</v>
       </c>
       <c r="AT3">
-        <v>1050</v>
+        <v>529</v>
       </c>
       <c r="AU3">
-        <v>1074</v>
+        <v>545</v>
       </c>
       <c r="AV3">
-        <v>1104</v>
+        <v>559</v>
       </c>
       <c r="AW3">
-        <v>1137</v>
+        <v>578</v>
       </c>
       <c r="AX3">
-        <v>1176</v>
+        <v>598</v>
       </c>
       <c r="AY3">
-        <v>1218</v>
+        <v>620</v>
       </c>
       <c r="AZ3">
-        <v>1248</v>
+        <v>628</v>
       </c>
       <c r="BA3">
-        <v>1272</v>
+        <v>644</v>
       </c>
       <c r="BB3">
-        <v>1302</v>
+        <v>658</v>
       </c>
       <c r="BC3">
-        <v>1335</v>
+        <v>677</v>
       </c>
       <c r="BD3">
-        <v>1374</v>
+        <v>697</v>
       </c>
       <c r="BE3">
-        <v>1416</v>
+        <v>719</v>
       </c>
       <c r="BF3">
-        <v>1455</v>
+        <v>736</v>
       </c>
       <c r="BG3">
-        <v>1488</v>
+        <v>752</v>
       </c>
       <c r="BH3">
-        <v>1518</v>
+        <v>766</v>
       </c>
       <c r="BI3">
-        <v>1551</v>
+        <v>785</v>
       </c>
       <c r="BJ3">
-        <v>1590</v>
+        <v>805</v>
       </c>
       <c r="BK3">
-        <v>1623</v>
+        <v>818</v>
       </c>
       <c r="BL3">
-        <v>1653</v>
+        <v>835</v>
       </c>
       <c r="BM3">
-        <v>1686</v>
+        <v>851</v>
       </c>
       <c r="BN3">
-        <v>1716</v>
+        <v>865</v>
       </c>
       <c r="BO3">
-        <v>1749</v>
+        <v>884</v>
       </c>
       <c r="BP3">
-        <v>1788</v>
+        <v>904</v>
       </c>
       <c r="BQ3">
-        <v>1821</v>
+        <v>917</v>
       </c>
       <c r="BR3">
-        <v>1851</v>
+        <v>934</v>
       </c>
       <c r="BS3">
-        <v>1884</v>
+        <v>950</v>
       </c>
       <c r="BT3">
-        <v>1914</v>
+        <v>964</v>
       </c>
       <c r="BU3">
-        <v>1947</v>
+        <v>983</v>
       </c>
       <c r="BV3">
-        <v>1986</v>
+        <v>1003</v>
       </c>
       <c r="BW3">
-        <v>2010</v>
+        <v>1007</v>
       </c>
       <c r="BX3">
-        <v>2022</v>
+        <v>1015</v>
       </c>
       <c r="BY3">
-        <v>2037</v>
+        <v>1022</v>
       </c>
       <c r="BZ3">
-        <v>2049</v>
+        <v>1027</v>
       </c>
       <c r="CA3">
-        <v>2064</v>
+        <v>1037</v>
       </c>
       <c r="CB3">
-        <v>2085</v>
+        <v>1048</v>
       </c>
       <c r="CC3">
-        <v>2109</v>
+        <v>1061</v>
       </c>
       <c r="CD3">
-        <v>2130</v>
+        <v>1069</v>
       </c>
       <c r="CE3">
-        <v>2154</v>
+        <v>1085</v>
       </c>
       <c r="CF3">
-        <v>2184</v>
+        <v>1099</v>
       </c>
       <c r="CG3">
-        <v>2217</v>
+        <v>1118</v>
       </c>
       <c r="CH3">
-        <v>2247</v>
+        <v>1129</v>
       </c>
       <c r="CI3">
-        <v>2271</v>
+        <v>1142</v>
       </c>
       <c r="CJ3">
-        <v>2292</v>
+        <v>1150</v>
       </c>
       <c r="CK3">
-        <v>2307</v>
+        <v>1157</v>
       </c>
       <c r="CL3">
-        <v>2328</v>
+        <v>1171</v>
       </c>
       <c r="CM3">
-        <v>2352</v>
+        <v>1181</v>
       </c>
       <c r="CN3">
-        <v>2373</v>
+        <v>1192</v>
       </c>
       <c r="CO3">
-        <v>2397</v>
+        <v>1205</v>
       </c>
       <c r="CP3">
-        <v>2418</v>
+        <v>1213</v>
       </c>
       <c r="CQ3">
-        <v>2433</v>
+        <v>1220</v>
       </c>
       <c r="CR3">
-        <v>2445</v>
+        <v>1225</v>
       </c>
       <c r="CS3">
-        <v>2460</v>
+        <v>1235</v>
       </c>
       <c r="CT3">
-        <v>2481</v>
+        <v>1246</v>
       </c>
       <c r="CU3">
-        <v>2505</v>
+        <v>1259</v>
       </c>
       <c r="CV3">
-        <v>2535</v>
+        <v>1276</v>
       </c>
       <c r="CX3">
         <f>SUM(A3:CW3)</f>
-        <v>123210</v>
+        <v>62238</v>
       </c>
       <c r="CY3">
         <f>SUM($CX$2:CX3)</f>
-        <v>184182</v>
+        <v>123210</v>
+      </c>
+      <c r="DA3">
+        <f t="shared" ref="DA3:DA20" si="0">$DD$1-CY3</f>
+        <v>876790</v>
       </c>
     </row>
-    <row r="4" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C4">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="E4">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="F4">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="G4">
+        <v>58</v>
+      </c>
+      <c r="H4">
+        <v>71</v>
+      </c>
+      <c r="I4">
+        <v>79</v>
+      </c>
+      <c r="J4">
+        <v>95</v>
+      </c>
+      <c r="K4">
+        <v>109</v>
+      </c>
+      <c r="L4">
+        <v>119</v>
+      </c>
+      <c r="M4">
+        <v>130</v>
+      </c>
+      <c r="N4">
+        <v>134</v>
+      </c>
+      <c r="O4">
         <v>142</v>
       </c>
-      <c r="H4">
-        <v>176</v>
-      </c>
-      <c r="I4">
-        <v>208</v>
-      </c>
-      <c r="J4">
-        <v>245</v>
-      </c>
-      <c r="K4">
-        <v>283</v>
-      </c>
-      <c r="L4">
-        <v>323</v>
-      </c>
-      <c r="M4">
-        <v>358</v>
-      </c>
-      <c r="N4">
-        <v>383</v>
-      </c>
-      <c r="O4">
-        <v>406</v>
-      </c>
       <c r="P4">
-        <v>425</v>
+        <v>149</v>
       </c>
       <c r="Q4">
-        <v>454</v>
+        <v>163</v>
       </c>
       <c r="R4">
-        <v>485</v>
+        <v>173</v>
       </c>
       <c r="S4">
-        <v>520</v>
+        <v>184</v>
       </c>
       <c r="T4">
-        <v>554</v>
+        <v>197</v>
       </c>
       <c r="U4">
-        <v>595</v>
+        <v>214</v>
       </c>
       <c r="V4">
-        <v>632</v>
+        <v>221</v>
       </c>
       <c r="W4">
-        <v>661</v>
+        <v>226</v>
       </c>
       <c r="X4">
-        <v>683</v>
+        <v>236</v>
       </c>
       <c r="Y4">
-        <v>709</v>
+        <v>247</v>
       </c>
       <c r="Z4">
-        <v>743</v>
+        <v>260</v>
       </c>
       <c r="AA4">
-        <v>775</v>
+        <v>268</v>
       </c>
       <c r="AB4">
-        <v>812</v>
+        <v>284</v>
       </c>
       <c r="AC4">
-        <v>850</v>
+        <v>298</v>
       </c>
       <c r="AD4">
-        <v>899</v>
+        <v>317</v>
       </c>
       <c r="AE4">
-        <v>943</v>
+        <v>328</v>
       </c>
       <c r="AF4">
-        <v>986</v>
+        <v>341</v>
       </c>
       <c r="AG4">
-        <v>1018</v>
+        <v>349</v>
       </c>
       <c r="AH4">
-        <v>1055</v>
+        <v>365</v>
       </c>
       <c r="AI4">
-        <v>1093</v>
+        <v>379</v>
       </c>
       <c r="AJ4">
+        <v>398</v>
+      </c>
+      <c r="AK4">
+        <v>418</v>
+      </c>
+      <c r="AL4">
+        <v>431</v>
+      </c>
+      <c r="AM4">
+        <v>439</v>
+      </c>
+      <c r="AN4">
+        <v>455</v>
+      </c>
+      <c r="AO4">
+        <v>469</v>
+      </c>
+      <c r="AP4">
+        <v>488</v>
+      </c>
+      <c r="AQ4">
+        <v>508</v>
+      </c>
+      <c r="AR4">
+        <v>521</v>
+      </c>
+      <c r="AS4">
+        <v>529</v>
+      </c>
+      <c r="AT4">
+        <v>545</v>
+      </c>
+      <c r="AU4">
+        <v>559</v>
+      </c>
+      <c r="AV4">
+        <v>578</v>
+      </c>
+      <c r="AW4">
+        <v>598</v>
+      </c>
+      <c r="AX4">
+        <v>620</v>
+      </c>
+      <c r="AY4">
+        <v>628</v>
+      </c>
+      <c r="AZ4">
+        <v>644</v>
+      </c>
+      <c r="BA4">
+        <v>658</v>
+      </c>
+      <c r="BB4">
+        <v>677</v>
+      </c>
+      <c r="BC4">
+        <v>697</v>
+      </c>
+      <c r="BD4">
+        <v>719</v>
+      </c>
+      <c r="BE4">
+        <v>736</v>
+      </c>
+      <c r="BF4">
+        <v>752</v>
+      </c>
+      <c r="BG4">
+        <v>766</v>
+      </c>
+      <c r="BH4">
+        <v>785</v>
+      </c>
+      <c r="BI4">
+        <v>805</v>
+      </c>
+      <c r="BJ4">
+        <v>818</v>
+      </c>
+      <c r="BK4">
+        <v>835</v>
+      </c>
+      <c r="BL4">
+        <v>851</v>
+      </c>
+      <c r="BM4">
+        <v>865</v>
+      </c>
+      <c r="BN4">
+        <v>884</v>
+      </c>
+      <c r="BO4">
+        <v>904</v>
+      </c>
+      <c r="BP4">
+        <v>917</v>
+      </c>
+      <c r="BQ4">
+        <v>934</v>
+      </c>
+      <c r="BR4">
+        <v>950</v>
+      </c>
+      <c r="BS4">
+        <v>964</v>
+      </c>
+      <c r="BT4">
+        <v>983</v>
+      </c>
+      <c r="BU4">
+        <v>1003</v>
+      </c>
+      <c r="BV4">
+        <v>1007</v>
+      </c>
+      <c r="BW4">
+        <v>1015</v>
+      </c>
+      <c r="BX4">
+        <v>1022</v>
+      </c>
+      <c r="BY4">
+        <v>1027</v>
+      </c>
+      <c r="BZ4">
+        <v>1037</v>
+      </c>
+      <c r="CA4">
+        <v>1048</v>
+      </c>
+      <c r="CB4">
+        <v>1061</v>
+      </c>
+      <c r="CC4">
+        <v>1069</v>
+      </c>
+      <c r="CD4">
+        <v>1085</v>
+      </c>
+      <c r="CE4">
+        <v>1099</v>
+      </c>
+      <c r="CF4">
+        <v>1118</v>
+      </c>
+      <c r="CG4">
+        <v>1129</v>
+      </c>
+      <c r="CH4">
         <v>1142</v>
       </c>
-      <c r="AK4">
-        <v>1195</v>
-      </c>
-      <c r="AL4">
-        <v>1247</v>
-      </c>
-      <c r="AM4">
-        <v>1288</v>
-      </c>
-      <c r="AN4">
-        <v>1325</v>
-      </c>
-      <c r="AO4">
-        <v>1363</v>
-      </c>
-      <c r="AP4">
-        <v>1412</v>
-      </c>
-      <c r="AQ4">
-        <v>1465</v>
-      </c>
-      <c r="AR4">
-        <v>1517</v>
-      </c>
-      <c r="AS4">
-        <v>1558</v>
-      </c>
-      <c r="AT4">
-        <v>1595</v>
-      </c>
-      <c r="AU4">
-        <v>1633</v>
-      </c>
-      <c r="AV4">
-        <v>1682</v>
-      </c>
-      <c r="AW4">
-        <v>1735</v>
-      </c>
-      <c r="AX4">
-        <v>1796</v>
-      </c>
-      <c r="AY4">
-        <v>1846</v>
-      </c>
-      <c r="AZ4">
-        <v>1892</v>
-      </c>
-      <c r="BA4">
-        <v>1930</v>
-      </c>
-      <c r="BB4">
-        <v>1979</v>
-      </c>
-      <c r="BC4">
-        <v>2032</v>
-      </c>
-      <c r="BD4">
-        <v>2093</v>
-      </c>
-      <c r="BE4">
-        <v>2152</v>
-      </c>
-      <c r="BF4">
-        <v>2207</v>
-      </c>
-      <c r="BG4">
-        <v>2254</v>
-      </c>
-      <c r="BH4">
-        <v>2303</v>
-      </c>
-      <c r="BI4">
-        <v>2356</v>
-      </c>
-      <c r="BJ4">
-        <v>2408</v>
-      </c>
-      <c r="BK4">
-        <v>2458</v>
-      </c>
-      <c r="BL4">
-        <v>2504</v>
-      </c>
-      <c r="BM4">
-        <v>2551</v>
-      </c>
-      <c r="BN4">
-        <v>2600</v>
-      </c>
-      <c r="BO4">
-        <v>2653</v>
-      </c>
-      <c r="BP4">
-        <v>2705</v>
-      </c>
-      <c r="BQ4">
-        <v>2755</v>
-      </c>
-      <c r="BR4">
-        <v>2801</v>
-      </c>
-      <c r="BS4">
-        <v>2848</v>
-      </c>
-      <c r="BT4">
-        <v>2897</v>
-      </c>
-      <c r="BU4">
-        <v>2950</v>
-      </c>
-      <c r="BV4">
-        <v>2993</v>
-      </c>
-      <c r="BW4">
-        <v>3025</v>
-      </c>
-      <c r="BX4">
-        <v>3044</v>
-      </c>
-      <c r="BY4">
-        <v>3064</v>
-      </c>
-      <c r="BZ4">
-        <v>3086</v>
-      </c>
-      <c r="CA4">
-        <v>3112</v>
-      </c>
-      <c r="CB4">
-        <v>3146</v>
-      </c>
-      <c r="CC4">
-        <v>3178</v>
-      </c>
-      <c r="CD4">
-        <v>3215</v>
-      </c>
-      <c r="CE4">
-        <v>3253</v>
-      </c>
-      <c r="CF4">
-        <v>3302</v>
-      </c>
-      <c r="CG4">
-        <v>3346</v>
-      </c>
-      <c r="CH4">
-        <v>3389</v>
-      </c>
       <c r="CI4">
-        <v>3421</v>
+        <v>1150</v>
       </c>
       <c r="CJ4">
-        <v>3449</v>
+        <v>1157</v>
       </c>
       <c r="CK4">
-        <v>3478</v>
+        <v>1171</v>
       </c>
       <c r="CL4">
-        <v>3509</v>
+        <v>1181</v>
       </c>
       <c r="CM4">
-        <v>3544</v>
+        <v>1192</v>
       </c>
       <c r="CN4">
-        <v>3578</v>
+        <v>1205</v>
       </c>
       <c r="CO4">
-        <v>3610</v>
+        <v>1213</v>
       </c>
       <c r="CP4">
-        <v>3638</v>
+        <v>1220</v>
       </c>
       <c r="CQ4">
-        <v>3658</v>
+        <v>1225</v>
       </c>
       <c r="CR4">
-        <v>3680</v>
+        <v>1235</v>
       </c>
       <c r="CS4">
-        <v>3706</v>
+        <v>1246</v>
       </c>
       <c r="CT4">
-        <v>3740</v>
+        <v>1259</v>
       </c>
       <c r="CU4">
-        <v>3781</v>
+        <v>1276</v>
       </c>
       <c r="CV4">
-        <v>3827</v>
+        <v>1292</v>
       </c>
       <c r="CX4">
         <f>SUM(A4:CW4)</f>
-        <v>186729</v>
+        <v>63519</v>
       </c>
       <c r="CY4">
         <f>SUM($CX$2:CX4)</f>
-        <v>370911</v>
+        <v>186729</v>
+      </c>
+      <c r="DA4">
+        <f t="shared" si="0"/>
+        <v>813271</v>
       </c>
     </row>
-    <row r="5" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="B5">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="E5">
-        <v>141</v>
+        <v>47</v>
       </c>
       <c r="F5">
-        <v>174</v>
+        <v>58</v>
       </c>
       <c r="G5">
-        <v>213</v>
+        <v>71</v>
       </c>
       <c r="H5">
-        <v>255</v>
+        <v>79</v>
       </c>
       <c r="I5">
-        <v>303</v>
+        <v>95</v>
       </c>
       <c r="J5">
-        <v>354</v>
+        <v>109</v>
       </c>
       <c r="K5">
-        <v>402</v>
+        <v>119</v>
       </c>
       <c r="L5">
-        <v>453</v>
+        <v>130</v>
       </c>
       <c r="M5">
-        <v>492</v>
+        <v>134</v>
       </c>
       <c r="N5">
-        <v>525</v>
+        <v>142</v>
       </c>
       <c r="O5">
-        <v>555</v>
+        <v>149</v>
       </c>
       <c r="P5">
-        <v>588</v>
+        <v>163</v>
       </c>
       <c r="Q5">
-        <v>627</v>
+        <v>173</v>
       </c>
       <c r="R5">
-        <v>669</v>
+        <v>184</v>
       </c>
       <c r="S5">
-        <v>717</v>
+        <v>197</v>
       </c>
       <c r="T5">
-        <v>768</v>
+        <v>214</v>
       </c>
       <c r="U5">
-        <v>816</v>
+        <v>221</v>
       </c>
       <c r="V5">
-        <v>858</v>
+        <v>226</v>
       </c>
       <c r="W5">
-        <v>897</v>
+        <v>236</v>
       </c>
       <c r="X5">
-        <v>930</v>
+        <v>247</v>
       </c>
       <c r="Y5">
-        <v>969</v>
+        <v>260</v>
       </c>
       <c r="Z5">
-        <v>1011</v>
+        <v>268</v>
       </c>
       <c r="AA5">
-        <v>1059</v>
+        <v>284</v>
       </c>
       <c r="AB5">
-        <v>1110</v>
+        <v>298</v>
       </c>
       <c r="AC5">
-        <v>1167</v>
+        <v>317</v>
       </c>
       <c r="AD5">
-        <v>1227</v>
+        <v>328</v>
       </c>
       <c r="AE5">
-        <v>1284</v>
+        <v>341</v>
       </c>
       <c r="AF5">
-        <v>1335</v>
+        <v>349</v>
       </c>
       <c r="AG5">
-        <v>1383</v>
+        <v>365</v>
       </c>
       <c r="AH5">
-        <v>1434</v>
+        <v>379</v>
       </c>
       <c r="AI5">
-        <v>1491</v>
+        <v>398</v>
       </c>
       <c r="AJ5">
-        <v>1560</v>
+        <v>418</v>
       </c>
       <c r="AK5">
-        <v>1626</v>
+        <v>431</v>
       </c>
       <c r="AL5">
-        <v>1686</v>
+        <v>439</v>
       </c>
       <c r="AM5">
-        <v>1743</v>
+        <v>455</v>
       </c>
       <c r="AN5">
-        <v>1794</v>
+        <v>469</v>
       </c>
       <c r="AO5">
-        <v>1851</v>
+        <v>488</v>
       </c>
       <c r="AP5">
-        <v>1920</v>
+        <v>508</v>
       </c>
       <c r="AQ5">
-        <v>1986</v>
+        <v>521</v>
       </c>
       <c r="AR5">
-        <v>2046</v>
+        <v>529</v>
       </c>
       <c r="AS5">
-        <v>2103</v>
+        <v>545</v>
       </c>
       <c r="AT5">
-        <v>2154</v>
+        <v>559</v>
       </c>
       <c r="AU5">
-        <v>2211</v>
+        <v>578</v>
       </c>
       <c r="AV5">
-        <v>2280</v>
+        <v>598</v>
       </c>
       <c r="AW5">
-        <v>2355</v>
+        <v>620</v>
       </c>
       <c r="AX5">
-        <v>2424</v>
+        <v>628</v>
       </c>
       <c r="AY5">
-        <v>2490</v>
+        <v>644</v>
       </c>
       <c r="AZ5">
-        <v>2550</v>
+        <v>658</v>
       </c>
       <c r="BA5">
-        <v>2607</v>
+        <v>677</v>
       </c>
       <c r="BB5">
-        <v>2676</v>
+        <v>697</v>
       </c>
       <c r="BC5">
-        <v>2751</v>
+        <v>719</v>
       </c>
       <c r="BD5">
-        <v>2829</v>
+        <v>736</v>
       </c>
       <c r="BE5">
-        <v>2904</v>
+        <v>752</v>
       </c>
       <c r="BF5">
-        <v>2973</v>
+        <v>766</v>
       </c>
       <c r="BG5">
-        <v>3039</v>
+        <v>785</v>
       </c>
       <c r="BH5">
-        <v>3108</v>
+        <v>805</v>
       </c>
       <c r="BI5">
-        <v>3174</v>
+        <v>818</v>
       </c>
       <c r="BJ5">
-        <v>3243</v>
+        <v>835</v>
       </c>
       <c r="BK5">
-        <v>3309</v>
+        <v>851</v>
       </c>
       <c r="BL5">
-        <v>3369</v>
+        <v>865</v>
       </c>
       <c r="BM5">
-        <v>3435</v>
+        <v>884</v>
       </c>
       <c r="BN5">
-        <v>3504</v>
+        <v>904</v>
       </c>
       <c r="BO5">
-        <v>3570</v>
+        <v>917</v>
       </c>
       <c r="BP5">
-        <v>3639</v>
+        <v>934</v>
       </c>
       <c r="BQ5">
-        <v>3705</v>
+        <v>950</v>
       </c>
       <c r="BR5">
-        <v>3765</v>
+        <v>964</v>
       </c>
       <c r="BS5">
-        <v>3831</v>
+        <v>983</v>
       </c>
       <c r="BT5">
-        <v>3900</v>
+        <v>1003</v>
       </c>
       <c r="BU5">
-        <v>3957</v>
+        <v>1007</v>
       </c>
       <c r="BV5">
-        <v>4008</v>
+        <v>1015</v>
       </c>
       <c r="BW5">
-        <v>4047</v>
+        <v>1022</v>
       </c>
       <c r="BX5">
-        <v>4071</v>
+        <v>1027</v>
       </c>
       <c r="BY5">
-        <v>4101</v>
+        <v>1037</v>
       </c>
       <c r="BZ5">
-        <v>4134</v>
+        <v>1048</v>
       </c>
       <c r="CA5">
-        <v>4173</v>
+        <v>1061</v>
       </c>
       <c r="CB5">
-        <v>4215</v>
+        <v>1069</v>
       </c>
       <c r="CC5">
-        <v>4263</v>
+        <v>1085</v>
       </c>
       <c r="CD5">
-        <v>4314</v>
+        <v>1099</v>
       </c>
       <c r="CE5">
-        <v>4371</v>
+        <v>1118</v>
       </c>
       <c r="CF5">
-        <v>4431</v>
+        <v>1129</v>
       </c>
       <c r="CG5">
-        <v>4488</v>
+        <v>1142</v>
       </c>
       <c r="CH5">
-        <v>4539</v>
+        <v>1150</v>
       </c>
       <c r="CI5">
-        <v>4578</v>
+        <v>1157</v>
       </c>
       <c r="CJ5">
-        <v>4620</v>
+        <v>1171</v>
       </c>
       <c r="CK5">
-        <v>4659</v>
+        <v>1181</v>
       </c>
       <c r="CL5">
-        <v>4701</v>
+        <v>1192</v>
       </c>
       <c r="CM5">
-        <v>4749</v>
+        <v>1205</v>
       </c>
       <c r="CN5">
-        <v>4791</v>
+        <v>1213</v>
       </c>
       <c r="CO5">
-        <v>4830</v>
+        <v>1220</v>
       </c>
       <c r="CP5">
-        <v>4863</v>
+        <v>1225</v>
       </c>
       <c r="CQ5">
-        <v>4893</v>
+        <v>1235</v>
       </c>
       <c r="CR5">
-        <v>4926</v>
+        <v>1246</v>
       </c>
       <c r="CS5">
-        <v>4965</v>
+        <v>1259</v>
       </c>
       <c r="CT5">
-        <v>5016</v>
+        <v>1276</v>
       </c>
       <c r="CU5">
-        <v>5073</v>
+        <v>1292</v>
       </c>
       <c r="CV5">
-        <v>5133</v>
+        <v>1306</v>
       </c>
       <c r="CX5">
-        <f t="shared" ref="CX5:CX17" si="0">SUM(A5:CW5)</f>
-        <v>251541</v>
+        <f t="shared" ref="CX5:CX20" si="1">SUM(A5:CW5)</f>
+        <v>64812</v>
       </c>
       <c r="CY5">
         <f>SUM($CX$2:CX5)</f>
-        <v>622452</v>
+        <v>251541</v>
+      </c>
+      <c r="DA5">
+        <f t="shared" si="0"/>
+        <v>748459</v>
       </c>
     </row>
-    <row r="6" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="B6">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="C6">
-        <v>124</v>
+        <v>37</v>
       </c>
       <c r="D6">
-        <v>158</v>
+        <v>47</v>
       </c>
       <c r="E6">
-        <v>199</v>
+        <v>58</v>
       </c>
       <c r="F6">
-        <v>245</v>
+        <v>71</v>
       </c>
       <c r="G6">
-        <v>292</v>
+        <v>79</v>
       </c>
       <c r="H6">
-        <v>350</v>
+        <v>95</v>
       </c>
       <c r="I6">
-        <v>412</v>
+        <v>109</v>
       </c>
       <c r="J6">
-        <v>473</v>
+        <v>119</v>
       </c>
       <c r="K6">
-        <v>532</v>
+        <v>130</v>
       </c>
       <c r="L6">
-        <v>587</v>
+        <v>134</v>
       </c>
       <c r="M6">
-        <v>634</v>
+        <v>142</v>
       </c>
       <c r="N6">
-        <v>674</v>
+        <v>149</v>
       </c>
       <c r="O6">
-        <v>718</v>
+        <v>163</v>
       </c>
       <c r="P6">
-        <v>761</v>
+        <v>173</v>
       </c>
       <c r="Q6">
-        <v>811</v>
+        <v>184</v>
       </c>
       <c r="R6">
-        <v>866</v>
+        <v>197</v>
       </c>
       <c r="S6">
-        <v>931</v>
+        <v>214</v>
       </c>
       <c r="T6">
-        <v>989</v>
+        <v>221</v>
       </c>
       <c r="U6">
-        <v>1042</v>
+        <v>226</v>
       </c>
       <c r="V6">
-        <v>1094</v>
+        <v>236</v>
       </c>
       <c r="W6">
-        <v>1144</v>
+        <v>247</v>
       </c>
       <c r="X6">
-        <v>1190</v>
+        <v>260</v>
       </c>
       <c r="Y6">
-        <v>1237</v>
+        <v>268</v>
       </c>
       <c r="Z6">
-        <v>1295</v>
+        <v>284</v>
       </c>
       <c r="AA6">
-        <v>1357</v>
+        <v>298</v>
       </c>
       <c r="AB6">
-        <v>1427</v>
+        <v>317</v>
       </c>
       <c r="AC6">
-        <v>1495</v>
+        <v>328</v>
       </c>
       <c r="AD6">
-        <v>1568</v>
+        <v>341</v>
       </c>
       <c r="AE6">
-        <v>1633</v>
+        <v>349</v>
       </c>
       <c r="AF6">
-        <v>1700</v>
+        <v>365</v>
       </c>
       <c r="AG6">
-        <v>1762</v>
+        <v>379</v>
       </c>
       <c r="AH6">
-        <v>1832</v>
+        <v>398</v>
       </c>
       <c r="AI6">
-        <v>1909</v>
+        <v>418</v>
       </c>
       <c r="AJ6">
-        <v>1991</v>
+        <v>431</v>
       </c>
       <c r="AK6">
-        <v>2065</v>
+        <v>439</v>
       </c>
       <c r="AL6">
-        <v>2141</v>
+        <v>455</v>
       </c>
       <c r="AM6">
-        <v>2212</v>
+        <v>469</v>
       </c>
       <c r="AN6">
-        <v>2282</v>
+        <v>488</v>
       </c>
       <c r="AO6">
-        <v>2359</v>
+        <v>508</v>
       </c>
       <c r="AP6">
-        <v>2441</v>
+        <v>521</v>
       </c>
       <c r="AQ6">
-        <v>2515</v>
+        <v>529</v>
       </c>
       <c r="AR6">
-        <v>2591</v>
+        <v>545</v>
       </c>
       <c r="AS6">
-        <v>2662</v>
+        <v>559</v>
       </c>
       <c r="AT6">
-        <v>2732</v>
+        <v>578</v>
       </c>
       <c r="AU6">
-        <v>2809</v>
+        <v>598</v>
       </c>
       <c r="AV6">
-        <v>2900</v>
+        <v>620</v>
       </c>
       <c r="AW6">
-        <v>2983</v>
+        <v>628</v>
       </c>
       <c r="AX6">
-        <v>3068</v>
+        <v>644</v>
       </c>
       <c r="AY6">
-        <v>3148</v>
+        <v>658</v>
       </c>
       <c r="AZ6">
-        <v>3227</v>
+        <v>677</v>
       </c>
       <c r="BA6">
-        <v>3304</v>
+        <v>697</v>
       </c>
       <c r="BB6">
-        <v>3395</v>
+        <v>719</v>
       </c>
       <c r="BC6">
-        <v>3487</v>
+        <v>736</v>
       </c>
       <c r="BD6">
-        <v>3581</v>
+        <v>752</v>
       </c>
       <c r="BE6">
-        <v>3670</v>
+        <v>766</v>
       </c>
       <c r="BF6">
-        <v>3758</v>
+        <v>785</v>
       </c>
       <c r="BG6">
-        <v>3844</v>
+        <v>805</v>
       </c>
       <c r="BH6">
-        <v>3926</v>
+        <v>818</v>
       </c>
       <c r="BI6">
-        <v>4009</v>
+        <v>835</v>
       </c>
       <c r="BJ6">
-        <v>4094</v>
+        <v>851</v>
       </c>
       <c r="BK6">
-        <v>4174</v>
+        <v>865</v>
       </c>
       <c r="BL6">
-        <v>4253</v>
+        <v>884</v>
       </c>
       <c r="BM6">
-        <v>4339</v>
+        <v>904</v>
       </c>
       <c r="BN6">
-        <v>4421</v>
+        <v>917</v>
       </c>
       <c r="BO6">
-        <v>4504</v>
+        <v>934</v>
       </c>
       <c r="BP6">
-        <v>4589</v>
+        <v>950</v>
       </c>
       <c r="BQ6">
-        <v>4669</v>
+        <v>964</v>
       </c>
       <c r="BR6">
-        <v>4748</v>
+        <v>983</v>
       </c>
       <c r="BS6">
-        <v>4834</v>
+        <v>1003</v>
       </c>
       <c r="BT6">
-        <v>4907</v>
+        <v>1007</v>
       </c>
       <c r="BU6">
-        <v>4972</v>
+        <v>1015</v>
       </c>
       <c r="BV6">
-        <v>5030</v>
+        <v>1022</v>
       </c>
       <c r="BW6">
-        <v>5074</v>
+        <v>1027</v>
       </c>
       <c r="BX6">
-        <v>5108</v>
+        <v>1037</v>
       </c>
       <c r="BY6">
-        <v>5149</v>
+        <v>1048</v>
       </c>
       <c r="BZ6">
-        <v>5195</v>
+        <v>1061</v>
       </c>
       <c r="CA6">
-        <v>5242</v>
+        <v>1069</v>
       </c>
       <c r="CB6">
-        <v>5300</v>
+        <v>1085</v>
       </c>
       <c r="CC6">
-        <v>5362</v>
+        <v>1099</v>
       </c>
       <c r="CD6">
-        <v>5432</v>
+        <v>1118</v>
       </c>
       <c r="CE6">
-        <v>5500</v>
+        <v>1129</v>
       </c>
       <c r="CF6">
-        <v>5573</v>
+        <v>1142</v>
       </c>
       <c r="CG6">
-        <v>5638</v>
+        <v>1150</v>
       </c>
       <c r="CH6">
-        <v>5696</v>
+        <v>1157</v>
       </c>
       <c r="CI6">
-        <v>5749</v>
+        <v>1171</v>
       </c>
       <c r="CJ6">
-        <v>5801</v>
+        <v>1181</v>
       </c>
       <c r="CK6">
-        <v>5851</v>
+        <v>1192</v>
       </c>
       <c r="CL6">
-        <v>5906</v>
+        <v>1205</v>
       </c>
       <c r="CM6">
-        <v>5962</v>
+        <v>1213</v>
       </c>
       <c r="CN6">
-        <v>6011</v>
+        <v>1220</v>
       </c>
       <c r="CO6">
-        <v>6055</v>
+        <v>1225</v>
       </c>
       <c r="CP6">
-        <v>6098</v>
+        <v>1235</v>
       </c>
       <c r="CQ6">
-        <v>6139</v>
+        <v>1246</v>
       </c>
       <c r="CR6">
-        <v>6185</v>
+        <v>1259</v>
       </c>
       <c r="CS6">
-        <v>6241</v>
+        <v>1276</v>
       </c>
       <c r="CT6">
-        <v>6308</v>
+        <v>1292</v>
       </c>
       <c r="CU6">
-        <v>6379</v>
+        <v>1306</v>
       </c>
       <c r="CV6">
-        <v>6449</v>
+        <v>1316</v>
       </c>
       <c r="CX6">
-        <f t="shared" si="0"/>
-        <v>317652</v>
+        <f t="shared" si="1"/>
+        <v>66111</v>
       </c>
       <c r="CY6">
         <f>SUM($CX$2:CX6)</f>
-        <v>940104</v>
+        <v>317652</v>
+      </c>
+      <c r="DA6">
+        <f t="shared" si="0"/>
+        <v>682348</v>
       </c>
     </row>
-    <row r="7" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="B7">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="C7">
-        <v>171</v>
+        <v>47</v>
       </c>
       <c r="D7">
-        <v>216</v>
+        <v>58</v>
       </c>
       <c r="E7">
-        <v>270</v>
+        <v>71</v>
       </c>
       <c r="F7">
-        <v>324</v>
+        <v>79</v>
       </c>
       <c r="G7">
-        <v>387</v>
+        <v>95</v>
       </c>
       <c r="H7">
-        <v>459</v>
+        <v>109</v>
       </c>
       <c r="I7">
-        <v>531</v>
+        <v>119</v>
       </c>
       <c r="J7">
-        <v>603</v>
+        <v>130</v>
       </c>
       <c r="K7">
-        <v>666</v>
+        <v>134</v>
       </c>
       <c r="L7">
-        <v>729</v>
+        <v>142</v>
       </c>
       <c r="M7">
-        <v>783</v>
+        <v>149</v>
       </c>
       <c r="N7">
-        <v>837</v>
+        <v>163</v>
       </c>
       <c r="O7">
-        <v>891</v>
+        <v>173</v>
       </c>
       <c r="P7">
-        <v>945</v>
+        <v>184</v>
       </c>
       <c r="Q7">
-        <v>1008</v>
+        <v>197</v>
       </c>
       <c r="R7">
-        <v>1080</v>
+        <v>214</v>
       </c>
       <c r="S7">
-        <v>1152</v>
+        <v>221</v>
       </c>
       <c r="T7">
-        <v>1215</v>
+        <v>226</v>
       </c>
       <c r="U7">
-        <v>1278</v>
+        <v>236</v>
       </c>
       <c r="V7">
-        <v>1341</v>
+        <v>247</v>
       </c>
       <c r="W7">
-        <v>1404</v>
+        <v>260</v>
       </c>
       <c r="X7">
-        <v>1458</v>
+        <v>268</v>
       </c>
       <c r="Y7">
-        <v>1521</v>
+        <v>284</v>
       </c>
       <c r="Z7">
-        <v>1593</v>
+        <v>298</v>
       </c>
       <c r="AA7">
-        <v>1674</v>
+        <v>317</v>
       </c>
       <c r="AB7">
-        <v>1755</v>
+        <v>328</v>
       </c>
       <c r="AC7">
-        <v>1836</v>
+        <v>341</v>
       </c>
       <c r="AD7">
-        <v>1917</v>
+        <v>349</v>
       </c>
       <c r="AE7">
-        <v>1998</v>
+        <v>365</v>
       </c>
       <c r="AF7">
-        <v>2079</v>
+        <v>379</v>
       </c>
       <c r="AG7">
-        <v>2160</v>
+        <v>398</v>
       </c>
       <c r="AH7">
-        <v>2250</v>
+        <v>418</v>
       </c>
       <c r="AI7">
-        <v>2340</v>
+        <v>431</v>
       </c>
       <c r="AJ7">
-        <v>2430</v>
+        <v>439</v>
       </c>
       <c r="AK7">
-        <v>2520</v>
+        <v>455</v>
       </c>
       <c r="AL7">
-        <v>2610</v>
+        <v>469</v>
       </c>
       <c r="AM7">
-        <v>2700</v>
+        <v>488</v>
       </c>
       <c r="AN7">
-        <v>2790</v>
+        <v>508</v>
       </c>
       <c r="AO7">
-        <v>2880</v>
+        <v>521</v>
       </c>
       <c r="AP7">
-        <v>2970</v>
+        <v>529</v>
+      </c>
+      <c r="AQ7">
+        <v>545</v>
+      </c>
+      <c r="AR7">
+        <v>559</v>
+      </c>
+      <c r="AS7">
+        <v>578</v>
+      </c>
+      <c r="AT7">
+        <v>598</v>
+      </c>
+      <c r="AU7">
+        <v>620</v>
+      </c>
+      <c r="AV7">
+        <v>628</v>
+      </c>
+      <c r="AW7">
+        <v>644</v>
+      </c>
+      <c r="AX7">
+        <v>658</v>
+      </c>
+      <c r="AY7">
+        <v>677</v>
+      </c>
+      <c r="AZ7">
+        <v>697</v>
+      </c>
+      <c r="BA7">
+        <v>719</v>
+      </c>
+      <c r="BB7">
+        <v>736</v>
+      </c>
+      <c r="BC7">
+        <v>752</v>
+      </c>
+      <c r="BD7">
+        <v>766</v>
+      </c>
+      <c r="BE7">
+        <v>785</v>
+      </c>
+      <c r="BF7">
+        <v>805</v>
+      </c>
+      <c r="BG7">
+        <v>818</v>
+      </c>
+      <c r="BH7">
+        <v>835</v>
+      </c>
+      <c r="BI7">
+        <v>851</v>
+      </c>
+      <c r="BJ7">
+        <v>865</v>
+      </c>
+      <c r="BK7">
+        <v>884</v>
+      </c>
+      <c r="BL7">
+        <v>904</v>
+      </c>
+      <c r="BM7">
+        <v>917</v>
+      </c>
+      <c r="BN7">
+        <v>934</v>
+      </c>
+      <c r="BO7">
+        <v>950</v>
+      </c>
+      <c r="BP7">
+        <v>964</v>
+      </c>
+      <c r="BQ7">
+        <v>983</v>
+      </c>
+      <c r="BR7">
+        <v>1003</v>
+      </c>
+      <c r="BS7">
+        <v>1007</v>
+      </c>
+      <c r="BT7">
+        <v>1015</v>
+      </c>
+      <c r="BU7">
+        <v>1022</v>
+      </c>
+      <c r="BV7">
+        <v>1027</v>
+      </c>
+      <c r="BW7">
+        <v>1037</v>
+      </c>
+      <c r="BX7">
+        <v>1048</v>
+      </c>
+      <c r="BY7">
+        <v>1061</v>
+      </c>
+      <c r="BZ7">
+        <v>1069</v>
+      </c>
+      <c r="CA7">
+        <v>1085</v>
+      </c>
+      <c r="CB7">
+        <v>1099</v>
+      </c>
+      <c r="CC7">
+        <v>1118</v>
+      </c>
+      <c r="CD7">
+        <v>1129</v>
+      </c>
+      <c r="CE7">
+        <v>1142</v>
+      </c>
+      <c r="CF7">
+        <v>1150</v>
+      </c>
+      <c r="CG7">
+        <v>1157</v>
+      </c>
+      <c r="CH7">
+        <v>1171</v>
+      </c>
+      <c r="CI7">
+        <v>1181</v>
+      </c>
+      <c r="CJ7">
+        <v>1192</v>
+      </c>
+      <c r="CK7">
+        <v>1205</v>
+      </c>
+      <c r="CL7">
+        <v>1213</v>
+      </c>
+      <c r="CM7">
+        <v>1220</v>
+      </c>
+      <c r="CN7">
+        <v>1225</v>
+      </c>
+      <c r="CO7">
+        <v>1235</v>
+      </c>
+      <c r="CP7">
+        <v>1246</v>
+      </c>
+      <c r="CQ7">
+        <v>1259</v>
+      </c>
+      <c r="CR7">
+        <v>1276</v>
+      </c>
+      <c r="CS7">
+        <v>1292</v>
+      </c>
+      <c r="CT7">
+        <v>1306</v>
+      </c>
+      <c r="CU7">
+        <v>1316</v>
+      </c>
+      <c r="CV7">
+        <v>1327</v>
       </c>
       <c r="CX7">
-        <f t="shared" si="0"/>
-        <v>58014</v>
+        <f t="shared" si="1"/>
+        <v>67413</v>
       </c>
       <c r="CY7">
         <f>SUM($CX$2:CX7)</f>
-        <v>998118</v>
+        <v>385065</v>
+      </c>
+      <c r="DA7">
+        <f t="shared" si="0"/>
+        <v>614935</v>
       </c>
     </row>
-    <row r="8" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c r="B8">
-        <v>182</v>
+        <v>47</v>
       </c>
       <c r="C8">
-        <v>229</v>
+        <v>58</v>
       </c>
       <c r="D8">
-        <v>287</v>
+        <v>71</v>
       </c>
       <c r="E8">
+        <v>79</v>
+      </c>
+      <c r="F8">
+        <v>95</v>
+      </c>
+      <c r="G8">
+        <v>109</v>
+      </c>
+      <c r="H8">
+        <v>119</v>
+      </c>
+      <c r="I8">
+        <v>130</v>
+      </c>
+      <c r="J8">
+        <v>134</v>
+      </c>
+      <c r="K8">
+        <v>142</v>
+      </c>
+      <c r="L8">
+        <v>149</v>
+      </c>
+      <c r="M8">
+        <v>163</v>
+      </c>
+      <c r="N8">
+        <v>173</v>
+      </c>
+      <c r="O8">
+        <v>184</v>
+      </c>
+      <c r="P8">
+        <v>197</v>
+      </c>
+      <c r="Q8">
+        <v>214</v>
+      </c>
+      <c r="R8">
+        <v>221</v>
+      </c>
+      <c r="S8">
+        <v>226</v>
+      </c>
+      <c r="T8">
+        <v>236</v>
+      </c>
+      <c r="U8">
+        <v>247</v>
+      </c>
+      <c r="V8">
+        <v>260</v>
+      </c>
+      <c r="W8">
+        <v>268</v>
+      </c>
+      <c r="X8">
+        <v>284</v>
+      </c>
+      <c r="Y8">
+        <v>298</v>
+      </c>
+      <c r="Z8">
+        <v>317</v>
+      </c>
+      <c r="AA8">
+        <v>328</v>
+      </c>
+      <c r="AB8">
+        <v>341</v>
+      </c>
+      <c r="AC8">
         <v>349</v>
       </c>
-      <c r="F8">
-        <v>419</v>
+      <c r="AD8">
+        <v>365</v>
+      </c>
+      <c r="AE8">
+        <v>379</v>
+      </c>
+      <c r="AF8">
+        <v>398</v>
+      </c>
+      <c r="AG8">
+        <v>418</v>
+      </c>
+      <c r="AH8">
+        <v>431</v>
+      </c>
+      <c r="AI8">
+        <v>439</v>
+      </c>
+      <c r="AJ8">
+        <v>455</v>
+      </c>
+      <c r="AK8">
+        <v>469</v>
+      </c>
+      <c r="AL8">
+        <v>488</v>
+      </c>
+      <c r="AM8">
+        <v>508</v>
+      </c>
+      <c r="AN8">
+        <v>521</v>
+      </c>
+      <c r="AO8">
+        <v>529</v>
+      </c>
+      <c r="AP8">
+        <v>545</v>
+      </c>
+      <c r="AQ8">
+        <v>559</v>
+      </c>
+      <c r="AR8">
+        <v>578</v>
+      </c>
+      <c r="AS8">
+        <v>598</v>
+      </c>
+      <c r="AT8">
+        <v>620</v>
+      </c>
+      <c r="AU8">
+        <v>628</v>
+      </c>
+      <c r="AV8">
+        <v>644</v>
+      </c>
+      <c r="AW8">
+        <v>658</v>
+      </c>
+      <c r="AX8">
+        <v>677</v>
+      </c>
+      <c r="AY8">
+        <v>697</v>
+      </c>
+      <c r="AZ8">
+        <v>719</v>
+      </c>
+      <c r="BA8">
+        <v>736</v>
+      </c>
+      <c r="BB8">
+        <v>752</v>
+      </c>
+      <c r="BC8">
+        <v>766</v>
+      </c>
+      <c r="BD8">
+        <v>785</v>
+      </c>
+      <c r="BE8">
+        <v>805</v>
+      </c>
+      <c r="BF8">
+        <v>818</v>
+      </c>
+      <c r="BG8">
+        <v>835</v>
+      </c>
+      <c r="BH8">
+        <v>851</v>
+      </c>
+      <c r="BI8">
+        <v>865</v>
+      </c>
+      <c r="BJ8">
+        <v>884</v>
+      </c>
+      <c r="BK8">
+        <v>904</v>
+      </c>
+      <c r="BL8">
+        <v>917</v>
+      </c>
+      <c r="BM8">
+        <v>934</v>
+      </c>
+      <c r="BN8">
+        <v>950</v>
+      </c>
+      <c r="BO8">
+        <v>964</v>
+      </c>
+      <c r="BP8">
+        <v>983</v>
+      </c>
+      <c r="BQ8">
+        <v>1003</v>
+      </c>
+      <c r="BR8">
+        <v>1007</v>
+      </c>
+      <c r="BS8">
+        <v>1015</v>
+      </c>
+      <c r="BT8">
+        <v>1022</v>
+      </c>
+      <c r="BU8">
+        <v>1027</v>
+      </c>
+      <c r="BV8">
+        <v>1037</v>
+      </c>
+      <c r="BW8">
+        <v>1048</v>
+      </c>
+      <c r="BX8">
+        <v>1061</v>
+      </c>
+      <c r="BY8">
+        <v>1069</v>
+      </c>
+      <c r="BZ8">
+        <v>1085</v>
+      </c>
+      <c r="CA8">
+        <v>1099</v>
+      </c>
+      <c r="CB8">
+        <v>1118</v>
+      </c>
+      <c r="CC8">
+        <v>1129</v>
+      </c>
+      <c r="CD8">
+        <v>1142</v>
+      </c>
+      <c r="CE8">
+        <v>1150</v>
+      </c>
+      <c r="CF8">
+        <v>1157</v>
+      </c>
+      <c r="CG8">
+        <v>1171</v>
+      </c>
+      <c r="CH8">
+        <v>1181</v>
+      </c>
+      <c r="CI8">
+        <v>1192</v>
+      </c>
+      <c r="CJ8">
+        <v>1205</v>
+      </c>
+      <c r="CK8">
+        <v>1213</v>
+      </c>
+      <c r="CL8">
+        <v>1220</v>
+      </c>
+      <c r="CM8">
+        <v>1225</v>
+      </c>
+      <c r="CN8">
+        <v>1235</v>
+      </c>
+      <c r="CO8">
+        <v>1246</v>
+      </c>
+      <c r="CP8">
+        <v>1259</v>
+      </c>
+      <c r="CQ8">
+        <v>1276</v>
+      </c>
+      <c r="CR8">
+        <v>1292</v>
+      </c>
+      <c r="CS8">
+        <v>1306</v>
+      </c>
+      <c r="CT8">
+        <v>1316</v>
+      </c>
+      <c r="CU8">
+        <v>1327</v>
+      </c>
+      <c r="CV8">
+        <v>1340</v>
       </c>
       <c r="CX8">
-        <f t="shared" si="0"/>
-        <v>1611</v>
+        <f t="shared" si="1"/>
+        <v>68721</v>
       </c>
       <c r="CY8">
         <f>SUM($CX$2:CX8)</f>
-        <v>999729</v>
+        <v>453786</v>
+      </c>
+      <c r="DA8">
+        <f t="shared" si="0"/>
+        <v>546214</v>
       </c>
     </row>
-    <row r="9" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>192</v>
+        <v>47</v>
+      </c>
+      <c r="B9">
+        <v>58</v>
+      </c>
+      <c r="C9">
+        <v>71</v>
+      </c>
+      <c r="D9">
+        <v>79</v>
+      </c>
+      <c r="E9">
+        <v>95</v>
+      </c>
+      <c r="F9">
+        <v>109</v>
+      </c>
+      <c r="G9">
+        <v>119</v>
+      </c>
+      <c r="H9">
+        <v>130</v>
+      </c>
+      <c r="I9">
+        <v>134</v>
+      </c>
+      <c r="J9">
+        <v>142</v>
+      </c>
+      <c r="K9">
+        <v>149</v>
+      </c>
+      <c r="L9">
+        <v>163</v>
+      </c>
+      <c r="M9">
+        <v>173</v>
+      </c>
+      <c r="N9">
+        <v>184</v>
+      </c>
+      <c r="O9">
+        <v>197</v>
+      </c>
+      <c r="P9">
+        <v>214</v>
+      </c>
+      <c r="Q9">
+        <v>221</v>
+      </c>
+      <c r="R9">
+        <v>226</v>
+      </c>
+      <c r="S9">
+        <v>236</v>
+      </c>
+      <c r="T9">
+        <v>247</v>
+      </c>
+      <c r="U9">
+        <v>260</v>
+      </c>
+      <c r="V9">
+        <v>268</v>
+      </c>
+      <c r="W9">
+        <v>284</v>
+      </c>
+      <c r="X9">
+        <v>298</v>
+      </c>
+      <c r="Y9">
+        <v>317</v>
+      </c>
+      <c r="Z9">
+        <v>328</v>
+      </c>
+      <c r="AA9">
+        <v>341</v>
+      </c>
+      <c r="AB9">
+        <v>349</v>
+      </c>
+      <c r="AC9">
+        <v>365</v>
+      </c>
+      <c r="AD9">
+        <v>379</v>
+      </c>
+      <c r="AE9">
+        <v>398</v>
+      </c>
+      <c r="AF9">
+        <v>418</v>
+      </c>
+      <c r="AG9">
+        <v>431</v>
+      </c>
+      <c r="AH9">
+        <v>439</v>
+      </c>
+      <c r="AI9">
+        <v>455</v>
+      </c>
+      <c r="AJ9">
+        <v>469</v>
+      </c>
+      <c r="AK9">
+        <v>488</v>
+      </c>
+      <c r="AL9">
+        <v>508</v>
+      </c>
+      <c r="AM9">
+        <v>521</v>
+      </c>
+      <c r="AN9">
+        <v>529</v>
+      </c>
+      <c r="AO9">
+        <v>545</v>
+      </c>
+      <c r="AP9">
+        <v>559</v>
+      </c>
+      <c r="AQ9">
+        <v>578</v>
+      </c>
+      <c r="AR9">
+        <v>598</v>
+      </c>
+      <c r="AS9">
+        <v>620</v>
+      </c>
+      <c r="AT9">
+        <v>628</v>
+      </c>
+      <c r="AU9">
+        <v>644</v>
+      </c>
+      <c r="AV9">
+        <v>658</v>
+      </c>
+      <c r="AW9">
+        <v>677</v>
+      </c>
+      <c r="AX9">
+        <v>697</v>
+      </c>
+      <c r="AY9">
+        <v>719</v>
+      </c>
+      <c r="AZ9">
+        <v>736</v>
+      </c>
+      <c r="BA9">
+        <v>752</v>
+      </c>
+      <c r="BB9">
+        <v>766</v>
+      </c>
+      <c r="BC9">
+        <v>785</v>
+      </c>
+      <c r="BD9">
+        <v>805</v>
+      </c>
+      <c r="BE9">
+        <v>818</v>
+      </c>
+      <c r="BF9">
+        <v>835</v>
+      </c>
+      <c r="BG9">
+        <v>851</v>
+      </c>
+      <c r="BH9">
+        <v>865</v>
+      </c>
+      <c r="BI9">
+        <v>884</v>
+      </c>
+      <c r="BJ9">
+        <v>904</v>
+      </c>
+      <c r="BK9">
+        <v>917</v>
+      </c>
+      <c r="BL9">
+        <v>934</v>
+      </c>
+      <c r="BM9">
+        <v>950</v>
+      </c>
+      <c r="BN9">
+        <v>964</v>
+      </c>
+      <c r="BO9">
+        <v>983</v>
+      </c>
+      <c r="BP9">
+        <v>1003</v>
+      </c>
+      <c r="BQ9">
+        <v>1007</v>
+      </c>
+      <c r="BR9">
+        <v>1015</v>
+      </c>
+      <c r="BS9">
+        <v>1022</v>
+      </c>
+      <c r="BT9">
+        <v>1027</v>
+      </c>
+      <c r="BU9">
+        <v>1037</v>
+      </c>
+      <c r="BV9">
+        <v>1048</v>
+      </c>
+      <c r="BW9">
+        <v>1061</v>
+      </c>
+      <c r="BX9">
+        <v>1069</v>
+      </c>
+      <c r="BY9">
+        <v>1085</v>
+      </c>
+      <c r="BZ9">
+        <v>1099</v>
+      </c>
+      <c r="CA9">
+        <v>1118</v>
+      </c>
+      <c r="CB9">
+        <v>1129</v>
+      </c>
+      <c r="CC9">
+        <v>1142</v>
+      </c>
+      <c r="CD9">
+        <v>1150</v>
+      </c>
+      <c r="CE9">
+        <v>1157</v>
+      </c>
+      <c r="CF9">
+        <v>1171</v>
+      </c>
+      <c r="CG9">
+        <v>1181</v>
+      </c>
+      <c r="CH9">
+        <v>1192</v>
+      </c>
+      <c r="CI9">
+        <v>1205</v>
+      </c>
+      <c r="CJ9">
+        <v>1213</v>
+      </c>
+      <c r="CK9">
+        <v>1220</v>
+      </c>
+      <c r="CL9">
+        <v>1225</v>
+      </c>
+      <c r="CM9">
+        <v>1235</v>
+      </c>
+      <c r="CN9">
+        <v>1246</v>
+      </c>
+      <c r="CO9">
+        <v>1259</v>
+      </c>
+      <c r="CP9">
+        <v>1276</v>
+      </c>
+      <c r="CQ9">
+        <v>1292</v>
+      </c>
+      <c r="CR9">
+        <v>1306</v>
+      </c>
+      <c r="CS9">
+        <v>1316</v>
+      </c>
+      <c r="CT9">
+        <v>1327</v>
+      </c>
+      <c r="CU9">
+        <v>1340</v>
+      </c>
+      <c r="CV9">
+        <v>1348</v>
       </c>
       <c r="CX9">
-        <f t="shared" si="0"/>
-        <v>192</v>
+        <f t="shared" si="1"/>
+        <v>70032</v>
       </c>
       <c r="CY9">
         <f>SUM($CX$2:CX9)</f>
-        <v>999921</v>
+        <v>523818</v>
+      </c>
+      <c r="DA9">
+        <f t="shared" si="0"/>
+        <v>476182</v>
       </c>
     </row>
-    <row r="10" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>58</v>
+      </c>
+      <c r="B10">
+        <v>71</v>
+      </c>
+      <c r="C10">
+        <v>79</v>
+      </c>
+      <c r="D10">
+        <v>95</v>
+      </c>
+      <c r="E10">
+        <v>109</v>
+      </c>
+      <c r="F10">
+        <v>119</v>
+      </c>
+      <c r="G10">
+        <v>130</v>
+      </c>
+      <c r="H10">
+        <v>134</v>
+      </c>
+      <c r="I10">
+        <v>142</v>
+      </c>
+      <c r="J10">
+        <v>149</v>
+      </c>
+      <c r="K10">
+        <v>163</v>
+      </c>
+      <c r="L10">
+        <v>173</v>
+      </c>
+      <c r="M10">
+        <v>184</v>
+      </c>
+      <c r="N10">
+        <v>197</v>
+      </c>
+      <c r="O10">
+        <v>214</v>
+      </c>
+      <c r="P10">
+        <v>221</v>
+      </c>
+      <c r="Q10">
+        <v>226</v>
+      </c>
+      <c r="R10">
+        <v>236</v>
+      </c>
+      <c r="S10">
+        <v>247</v>
+      </c>
+      <c r="T10">
+        <v>260</v>
+      </c>
+      <c r="U10">
+        <v>268</v>
+      </c>
+      <c r="V10">
+        <v>284</v>
+      </c>
+      <c r="W10">
+        <v>298</v>
+      </c>
+      <c r="X10">
+        <v>317</v>
+      </c>
+      <c r="Y10">
+        <v>328</v>
+      </c>
+      <c r="Z10">
+        <v>341</v>
+      </c>
+      <c r="AA10">
+        <v>349</v>
+      </c>
+      <c r="AB10">
+        <v>365</v>
+      </c>
+      <c r="AC10">
+        <v>379</v>
+      </c>
+      <c r="AD10">
+        <v>398</v>
+      </c>
+      <c r="AE10">
+        <v>418</v>
+      </c>
+      <c r="AF10">
+        <v>431</v>
+      </c>
+      <c r="AG10">
+        <v>439</v>
+      </c>
+      <c r="AH10">
+        <v>455</v>
+      </c>
+      <c r="AI10">
+        <v>469</v>
+      </c>
+      <c r="AJ10">
+        <v>488</v>
+      </c>
+      <c r="AK10">
+        <v>508</v>
+      </c>
+      <c r="AL10">
+        <v>521</v>
+      </c>
+      <c r="AM10">
+        <v>529</v>
+      </c>
+      <c r="AN10">
+        <v>545</v>
+      </c>
+      <c r="AO10">
+        <v>559</v>
+      </c>
+      <c r="AP10">
+        <v>578</v>
+      </c>
+      <c r="AQ10">
+        <v>598</v>
+      </c>
+      <c r="AR10">
+        <v>620</v>
+      </c>
+      <c r="AS10">
+        <v>628</v>
+      </c>
+      <c r="AT10">
+        <v>644</v>
+      </c>
+      <c r="AU10">
+        <v>658</v>
+      </c>
+      <c r="AV10">
+        <v>677</v>
+      </c>
+      <c r="AW10">
+        <v>697</v>
+      </c>
+      <c r="AX10">
+        <v>719</v>
+      </c>
+      <c r="AY10">
+        <v>736</v>
+      </c>
+      <c r="AZ10">
+        <v>752</v>
+      </c>
+      <c r="BA10">
+        <v>766</v>
+      </c>
+      <c r="BB10">
+        <v>785</v>
+      </c>
+      <c r="BC10">
+        <v>805</v>
+      </c>
+      <c r="BD10">
+        <v>818</v>
+      </c>
+      <c r="BE10">
+        <v>835</v>
+      </c>
+      <c r="BF10">
+        <v>851</v>
+      </c>
+      <c r="BG10">
+        <v>865</v>
+      </c>
+      <c r="BH10">
+        <v>884</v>
+      </c>
+      <c r="BI10">
+        <v>904</v>
+      </c>
+      <c r="BJ10">
+        <v>917</v>
+      </c>
+      <c r="BK10">
+        <v>934</v>
+      </c>
+      <c r="BL10">
+        <v>950</v>
+      </c>
+      <c r="BM10">
+        <v>964</v>
+      </c>
+      <c r="BN10">
+        <v>983</v>
+      </c>
+      <c r="BO10">
+        <v>1003</v>
+      </c>
+      <c r="BP10">
+        <v>1007</v>
+      </c>
+      <c r="BQ10">
+        <v>1015</v>
+      </c>
+      <c r="BR10">
+        <v>1022</v>
+      </c>
+      <c r="BS10">
+        <v>1027</v>
+      </c>
+      <c r="BT10">
+        <v>1037</v>
+      </c>
+      <c r="BU10">
+        <v>1048</v>
+      </c>
+      <c r="BV10">
+        <v>1061</v>
+      </c>
+      <c r="BW10">
+        <v>1069</v>
+      </c>
+      <c r="BX10">
+        <v>1085</v>
+      </c>
+      <c r="BY10">
+        <v>1099</v>
+      </c>
+      <c r="BZ10">
+        <v>1118</v>
+      </c>
+      <c r="CA10">
+        <v>1129</v>
+      </c>
+      <c r="CB10">
+        <v>1142</v>
+      </c>
+      <c r="CC10">
+        <v>1150</v>
+      </c>
+      <c r="CD10">
+        <v>1157</v>
+      </c>
+      <c r="CE10">
+        <v>1171</v>
+      </c>
+      <c r="CF10">
+        <v>1181</v>
+      </c>
+      <c r="CG10">
+        <v>1192</v>
+      </c>
+      <c r="CH10">
+        <v>1205</v>
+      </c>
+      <c r="CI10">
+        <v>1213</v>
+      </c>
+      <c r="CJ10">
+        <v>1220</v>
+      </c>
+      <c r="CK10">
+        <v>1225</v>
+      </c>
+      <c r="CL10">
+        <v>1235</v>
+      </c>
+      <c r="CM10">
+        <v>1246</v>
+      </c>
+      <c r="CN10">
+        <v>1259</v>
+      </c>
+      <c r="CO10">
+        <v>1276</v>
+      </c>
+      <c r="CP10">
+        <v>1292</v>
+      </c>
+      <c r="CQ10">
+        <v>1306</v>
+      </c>
+      <c r="CR10">
+        <v>1316</v>
+      </c>
+      <c r="CS10">
+        <v>1327</v>
+      </c>
+      <c r="CT10">
+        <v>1340</v>
+      </c>
+      <c r="CU10">
+        <v>1348</v>
+      </c>
+      <c r="CV10">
+        <v>1364</v>
+      </c>
       <c r="CX10">
+        <f t="shared" si="1"/>
+        <v>71349</v>
+      </c>
+      <c r="CY10">
+        <f>SUM($CX$2:CX10)</f>
+        <v>595167</v>
+      </c>
+      <c r="DA10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>404833</v>
       </c>
     </row>
-    <row r="11" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>2</v>
+    <row r="11" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>71</v>
+      </c>
+      <c r="B11">
+        <v>79</v>
+      </c>
+      <c r="C11">
+        <v>95</v>
+      </c>
+      <c r="D11">
+        <v>109</v>
+      </c>
+      <c r="E11">
+        <v>119</v>
+      </c>
+      <c r="F11">
+        <v>130</v>
+      </c>
+      <c r="G11">
+        <v>134</v>
+      </c>
+      <c r="H11">
+        <v>142</v>
+      </c>
+      <c r="I11">
+        <v>149</v>
+      </c>
+      <c r="J11">
+        <v>163</v>
+      </c>
+      <c r="K11">
+        <v>173</v>
+      </c>
+      <c r="L11">
+        <v>184</v>
+      </c>
+      <c r="M11">
+        <v>197</v>
+      </c>
+      <c r="N11">
+        <v>214</v>
+      </c>
+      <c r="O11">
+        <v>221</v>
+      </c>
+      <c r="P11">
+        <v>226</v>
+      </c>
+      <c r="Q11">
+        <v>236</v>
+      </c>
+      <c r="R11">
+        <v>247</v>
+      </c>
+      <c r="S11">
+        <v>260</v>
+      </c>
+      <c r="T11">
+        <v>268</v>
+      </c>
+      <c r="U11">
+        <v>284</v>
+      </c>
+      <c r="V11">
+        <v>298</v>
+      </c>
+      <c r="W11">
+        <v>317</v>
+      </c>
+      <c r="X11">
+        <v>328</v>
+      </c>
+      <c r="Y11">
+        <v>341</v>
+      </c>
+      <c r="Z11">
+        <v>349</v>
+      </c>
+      <c r="AA11">
+        <v>365</v>
+      </c>
+      <c r="AB11">
+        <v>379</v>
+      </c>
+      <c r="AC11">
+        <v>398</v>
+      </c>
+      <c r="AD11">
+        <v>418</v>
+      </c>
+      <c r="AE11">
+        <v>431</v>
+      </c>
+      <c r="AF11">
+        <v>439</v>
+      </c>
+      <c r="AG11">
+        <v>455</v>
+      </c>
+      <c r="AH11">
+        <v>469</v>
+      </c>
+      <c r="AI11">
+        <v>488</v>
+      </c>
+      <c r="AJ11">
+        <v>508</v>
+      </c>
+      <c r="AK11">
+        <v>521</v>
+      </c>
+      <c r="AL11">
+        <v>529</v>
+      </c>
+      <c r="AM11">
+        <v>545</v>
+      </c>
+      <c r="AN11">
+        <v>559</v>
+      </c>
+      <c r="AO11">
+        <v>578</v>
+      </c>
+      <c r="AP11">
+        <v>598</v>
+      </c>
+      <c r="AQ11">
+        <v>620</v>
+      </c>
+      <c r="AR11">
+        <v>628</v>
+      </c>
+      <c r="AS11">
+        <v>644</v>
+      </c>
+      <c r="AT11">
+        <v>658</v>
+      </c>
+      <c r="AU11">
+        <v>677</v>
+      </c>
+      <c r="AV11">
+        <v>697</v>
+      </c>
+      <c r="AW11">
+        <v>719</v>
+      </c>
+      <c r="AX11">
+        <v>736</v>
+      </c>
+      <c r="AY11">
+        <v>752</v>
+      </c>
+      <c r="AZ11">
+        <v>766</v>
+      </c>
+      <c r="BA11">
+        <v>785</v>
+      </c>
+      <c r="BB11">
+        <v>805</v>
+      </c>
+      <c r="BC11">
+        <v>818</v>
+      </c>
+      <c r="BD11">
+        <v>835</v>
+      </c>
+      <c r="BE11">
+        <v>851</v>
+      </c>
+      <c r="BF11">
+        <v>865</v>
+      </c>
+      <c r="BG11">
+        <v>884</v>
+      </c>
+      <c r="BH11">
+        <v>904</v>
+      </c>
+      <c r="BI11">
+        <v>917</v>
+      </c>
+      <c r="BJ11">
+        <v>934</v>
+      </c>
+      <c r="BK11">
+        <v>950</v>
+      </c>
+      <c r="BL11">
+        <v>964</v>
+      </c>
+      <c r="BM11">
+        <v>983</v>
+      </c>
+      <c r="BN11">
+        <v>1003</v>
+      </c>
+      <c r="BO11">
+        <v>1007</v>
+      </c>
+      <c r="BP11">
+        <v>1015</v>
+      </c>
+      <c r="BQ11">
+        <v>1022</v>
+      </c>
+      <c r="BR11">
+        <v>1027</v>
+      </c>
+      <c r="BS11">
+        <v>1037</v>
+      </c>
+      <c r="BT11">
+        <v>1048</v>
+      </c>
+      <c r="BU11">
+        <v>1061</v>
+      </c>
+      <c r="BV11">
+        <v>1069</v>
+      </c>
+      <c r="BW11">
+        <v>1085</v>
+      </c>
+      <c r="BX11">
+        <v>1099</v>
+      </c>
+      <c r="BY11">
+        <v>1118</v>
+      </c>
+      <c r="BZ11">
+        <v>1129</v>
+      </c>
+      <c r="CA11">
+        <v>1142</v>
+      </c>
+      <c r="CB11">
+        <v>1150</v>
+      </c>
+      <c r="CC11">
+        <v>1157</v>
+      </c>
+      <c r="CD11">
+        <v>1171</v>
+      </c>
+      <c r="CE11">
+        <v>1181</v>
+      </c>
+      <c r="CF11">
+        <v>1192</v>
+      </c>
+      <c r="CG11">
+        <v>1205</v>
+      </c>
+      <c r="CH11">
+        <v>1213</v>
+      </c>
+      <c r="CI11">
+        <v>1220</v>
+      </c>
+      <c r="CJ11">
+        <v>1225</v>
+      </c>
+      <c r="CK11">
+        <v>1235</v>
+      </c>
+      <c r="CL11">
+        <v>1246</v>
+      </c>
+      <c r="CM11">
+        <v>1259</v>
+      </c>
+      <c r="CN11">
+        <v>1276</v>
+      </c>
+      <c r="CO11">
+        <v>1292</v>
+      </c>
+      <c r="CP11">
+        <v>1306</v>
+      </c>
+      <c r="CQ11">
+        <v>1316</v>
+      </c>
+      <c r="CR11">
+        <v>1327</v>
+      </c>
+      <c r="CS11">
+        <v>1340</v>
+      </c>
+      <c r="CT11">
+        <v>1348</v>
+      </c>
+      <c r="CU11">
+        <v>1364</v>
+      </c>
+      <c r="CV11">
+        <v>1378</v>
       </c>
       <c r="CX11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>72669</v>
       </c>
       <c r="CY11">
         <f>SUM($CX$2:CX11)</f>
-        <v>999921</v>
+        <v>667836</v>
+      </c>
+      <c r="DA11">
+        <f t="shared" si="0"/>
+        <v>332164</v>
       </c>
     </row>
-    <row r="12" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>79</v>
+      </c>
+      <c r="B12">
+        <v>95</v>
+      </c>
+      <c r="C12">
+        <v>109</v>
+      </c>
+      <c r="D12">
+        <v>119</v>
+      </c>
+      <c r="E12">
+        <v>130</v>
+      </c>
+      <c r="F12">
+        <v>134</v>
+      </c>
+      <c r="G12">
+        <v>142</v>
+      </c>
+      <c r="H12">
+        <v>149</v>
+      </c>
+      <c r="I12">
+        <v>163</v>
+      </c>
+      <c r="J12">
+        <v>173</v>
+      </c>
+      <c r="K12">
+        <v>184</v>
+      </c>
+      <c r="L12">
+        <v>197</v>
+      </c>
+      <c r="M12">
+        <v>214</v>
+      </c>
+      <c r="N12">
+        <v>221</v>
+      </c>
+      <c r="O12">
+        <v>226</v>
+      </c>
+      <c r="P12">
+        <v>236</v>
+      </c>
+      <c r="Q12">
+        <v>247</v>
+      </c>
+      <c r="R12">
+        <v>260</v>
+      </c>
+      <c r="S12">
+        <v>268</v>
+      </c>
+      <c r="T12">
+        <v>284</v>
+      </c>
+      <c r="U12">
+        <v>298</v>
+      </c>
+      <c r="V12">
+        <v>317</v>
+      </c>
+      <c r="W12">
+        <v>328</v>
+      </c>
+      <c r="X12">
+        <v>341</v>
+      </c>
+      <c r="Y12">
+        <v>349</v>
+      </c>
+      <c r="Z12">
+        <v>365</v>
+      </c>
+      <c r="AA12">
+        <v>379</v>
+      </c>
+      <c r="AB12">
+        <v>398</v>
+      </c>
+      <c r="AC12">
+        <v>418</v>
+      </c>
+      <c r="AD12">
+        <v>431</v>
+      </c>
+      <c r="AE12">
+        <v>439</v>
+      </c>
+      <c r="AF12">
+        <v>455</v>
+      </c>
+      <c r="AG12">
+        <v>469</v>
+      </c>
+      <c r="AH12">
+        <v>488</v>
+      </c>
+      <c r="AI12">
+        <v>508</v>
+      </c>
+      <c r="AJ12">
+        <v>521</v>
+      </c>
+      <c r="AK12">
+        <v>529</v>
+      </c>
+      <c r="AL12">
+        <v>545</v>
+      </c>
+      <c r="AM12">
+        <v>559</v>
+      </c>
+      <c r="AN12">
+        <v>578</v>
+      </c>
+      <c r="AO12">
+        <v>598</v>
+      </c>
+      <c r="AP12">
+        <v>620</v>
+      </c>
+      <c r="AQ12">
+        <v>628</v>
+      </c>
+      <c r="AR12">
+        <v>644</v>
+      </c>
+      <c r="AS12">
+        <v>658</v>
+      </c>
+      <c r="AT12">
+        <v>677</v>
+      </c>
+      <c r="AU12">
+        <v>697</v>
+      </c>
+      <c r="AV12">
+        <v>719</v>
+      </c>
+      <c r="AW12">
+        <v>736</v>
+      </c>
+      <c r="AX12">
+        <v>752</v>
+      </c>
+      <c r="AY12">
+        <v>766</v>
+      </c>
+      <c r="AZ12">
+        <v>785</v>
+      </c>
+      <c r="BA12">
+        <v>805</v>
+      </c>
+      <c r="BB12">
+        <v>818</v>
+      </c>
+      <c r="BC12">
+        <v>835</v>
+      </c>
+      <c r="BD12">
+        <v>851</v>
+      </c>
+      <c r="BE12">
+        <v>865</v>
+      </c>
+      <c r="BF12">
+        <v>884</v>
+      </c>
+      <c r="BG12">
+        <v>904</v>
+      </c>
+      <c r="BH12">
+        <v>917</v>
+      </c>
+      <c r="BI12">
+        <v>934</v>
+      </c>
+      <c r="BJ12">
+        <v>950</v>
+      </c>
+      <c r="BK12">
+        <v>964</v>
+      </c>
+      <c r="BL12">
+        <v>983</v>
+      </c>
+      <c r="BM12">
+        <v>1003</v>
+      </c>
+      <c r="BN12">
+        <v>1007</v>
+      </c>
+      <c r="BO12">
+        <v>1015</v>
+      </c>
+      <c r="BP12">
+        <v>1022</v>
+      </c>
+      <c r="BQ12">
+        <v>1027</v>
+      </c>
+      <c r="BR12">
+        <v>1037</v>
+      </c>
+      <c r="BS12">
+        <v>1048</v>
+      </c>
+      <c r="BT12">
+        <v>1061</v>
+      </c>
+      <c r="BU12">
+        <v>1069</v>
+      </c>
+      <c r="BV12">
+        <v>1085</v>
+      </c>
+      <c r="BW12">
+        <v>1099</v>
+      </c>
+      <c r="BX12">
+        <v>1118</v>
+      </c>
+      <c r="BY12">
+        <v>1129</v>
+      </c>
+      <c r="BZ12">
+        <v>1142</v>
+      </c>
+      <c r="CA12">
+        <v>1150</v>
+      </c>
+      <c r="CB12">
+        <v>1157</v>
+      </c>
+      <c r="CC12">
+        <v>1171</v>
+      </c>
+      <c r="CD12">
+        <v>1181</v>
+      </c>
+      <c r="CE12">
+        <v>1192</v>
+      </c>
+      <c r="CF12">
+        <v>1205</v>
+      </c>
+      <c r="CG12">
+        <v>1213</v>
+      </c>
+      <c r="CH12">
+        <v>1220</v>
+      </c>
+      <c r="CI12">
+        <v>1225</v>
+      </c>
+      <c r="CJ12">
+        <v>1235</v>
+      </c>
+      <c r="CK12">
+        <v>1246</v>
+      </c>
+      <c r="CL12">
+        <v>1259</v>
+      </c>
+      <c r="CM12">
+        <v>1276</v>
+      </c>
+      <c r="CN12">
+        <v>1292</v>
+      </c>
+      <c r="CO12">
+        <v>1306</v>
+      </c>
+      <c r="CP12">
+        <v>1316</v>
+      </c>
+      <c r="CQ12">
+        <v>1327</v>
+      </c>
+      <c r="CR12">
+        <v>1340</v>
+      </c>
+      <c r="CS12">
+        <v>1348</v>
+      </c>
+      <c r="CT12">
+        <v>1364</v>
+      </c>
+      <c r="CU12">
+        <v>1378</v>
+      </c>
+      <c r="CV12">
+        <v>1397</v>
+      </c>
       <c r="CX12">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>73995</v>
       </c>
       <c r="CY12">
         <f>SUM($CX$2:CX12)</f>
-        <v>999921</v>
+        <v>741831</v>
+      </c>
+      <c r="DA12">
+        <f t="shared" si="0"/>
+        <v>258169</v>
       </c>
     </row>
-    <row r="13" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>495</v>
+        <v>95</v>
       </c>
       <c r="B13">
-        <v>594</v>
+        <v>109</v>
       </c>
       <c r="C13">
-        <v>702</v>
+        <v>119</v>
       </c>
       <c r="D13">
-        <v>819</v>
+        <v>130</v>
       </c>
       <c r="E13">
-        <v>936</v>
+        <v>134</v>
       </c>
       <c r="F13">
-        <v>1053</v>
+        <v>142</v>
       </c>
       <c r="G13">
-        <v>1170</v>
+        <v>149</v>
       </c>
       <c r="H13">
-        <v>1296</v>
+        <v>163</v>
       </c>
       <c r="I13">
-        <v>1422</v>
+        <v>173</v>
       </c>
       <c r="J13">
-        <v>1548</v>
+        <v>184</v>
       </c>
       <c r="K13">
-        <v>1674</v>
+        <v>197</v>
       </c>
       <c r="L13">
-        <v>1809</v>
+        <v>214</v>
       </c>
       <c r="M13">
-        <v>1935</v>
+        <v>221</v>
       </c>
       <c r="N13">
-        <v>2052</v>
+        <v>226</v>
       </c>
       <c r="O13">
-        <v>2169</v>
+        <v>236</v>
       </c>
       <c r="P13">
-        <v>2286</v>
+        <v>247</v>
       </c>
       <c r="Q13">
-        <v>2412</v>
+        <v>260</v>
       </c>
       <c r="R13">
-        <v>2538</v>
+        <v>268</v>
       </c>
       <c r="S13">
-        <v>2673</v>
+        <v>284</v>
       </c>
       <c r="T13">
-        <v>2808</v>
+        <v>298</v>
       </c>
       <c r="U13">
-        <v>2952</v>
+        <v>317</v>
       </c>
       <c r="V13">
-        <v>3096</v>
+        <v>328</v>
       </c>
       <c r="W13">
-        <v>3240</v>
+        <v>341</v>
       </c>
       <c r="X13">
-        <v>3375</v>
+        <v>349</v>
       </c>
       <c r="Y13">
-        <v>3519</v>
+        <v>365</v>
       </c>
       <c r="Z13">
-        <v>3672</v>
+        <v>379</v>
       </c>
       <c r="AA13">
-        <v>3834</v>
+        <v>398</v>
       </c>
       <c r="AB13">
-        <v>4005</v>
+        <v>418</v>
       </c>
       <c r="AC13">
-        <v>4176</v>
+        <v>431</v>
       </c>
       <c r="AD13">
-        <v>4347</v>
+        <v>439</v>
       </c>
       <c r="AE13">
-        <v>4518</v>
+        <v>455</v>
       </c>
       <c r="AF13">
-        <v>4689</v>
+        <v>469</v>
       </c>
       <c r="AG13">
-        <v>4860</v>
+        <v>488</v>
       </c>
       <c r="AH13">
-        <v>5040</v>
+        <v>508</v>
       </c>
       <c r="AI13">
-        <v>5220</v>
+        <v>521</v>
       </c>
       <c r="AJ13">
-        <v>5400</v>
+        <v>529</v>
       </c>
       <c r="AK13">
-        <v>5580</v>
+        <v>545</v>
       </c>
       <c r="AL13">
-        <v>5760</v>
+        <v>559</v>
       </c>
       <c r="AM13">
-        <v>5940</v>
+        <v>578</v>
       </c>
       <c r="AN13">
-        <v>6120</v>
+        <v>598</v>
       </c>
       <c r="AO13">
-        <v>6309</v>
+        <v>620</v>
       </c>
       <c r="AP13">
-        <v>6498</v>
+        <v>628</v>
       </c>
       <c r="AQ13">
-        <v>6687</v>
+        <v>644</v>
       </c>
       <c r="AR13">
-        <v>6876</v>
+        <v>658</v>
       </c>
       <c r="AS13">
-        <v>7065</v>
+        <v>677</v>
       </c>
       <c r="AT13">
-        <v>7254</v>
+        <v>697</v>
       </c>
       <c r="AU13">
-        <v>7452</v>
+        <v>719</v>
       </c>
       <c r="AV13">
-        <v>7659</v>
+        <v>736</v>
       </c>
       <c r="AW13">
-        <v>7866</v>
+        <v>752</v>
       </c>
       <c r="AX13">
-        <v>8073</v>
+        <v>766</v>
       </c>
       <c r="AY13">
-        <v>8280</v>
+        <v>785</v>
       </c>
       <c r="AZ13">
-        <v>8487</v>
+        <v>805</v>
       </c>
       <c r="BA13">
-        <v>8685</v>
+        <v>818</v>
       </c>
       <c r="BB13">
-        <v>8892</v>
+        <v>835</v>
       </c>
       <c r="BC13">
-        <v>9099</v>
+        <v>851</v>
       </c>
       <c r="BD13">
-        <v>9306</v>
+        <v>865</v>
       </c>
       <c r="BE13">
-        <v>9513</v>
+        <v>884</v>
       </c>
       <c r="BF13">
-        <v>9720</v>
+        <v>904</v>
       </c>
       <c r="BG13">
-        <v>9918</v>
+        <v>917</v>
       </c>
       <c r="BH13">
-        <v>10116</v>
+        <v>934</v>
       </c>
       <c r="BI13">
-        <v>10314</v>
+        <v>950</v>
       </c>
       <c r="BJ13">
-        <v>10512</v>
+        <v>964</v>
       </c>
       <c r="BK13">
-        <v>10710</v>
+        <v>983</v>
       </c>
       <c r="BL13">
-        <v>10908</v>
+        <v>1003</v>
       </c>
       <c r="BM13">
-        <v>11097</v>
+        <v>1007</v>
       </c>
       <c r="BN13">
-        <v>11277</v>
+        <v>1015</v>
       </c>
       <c r="BO13">
-        <v>11448</v>
+        <v>1022</v>
       </c>
       <c r="BP13">
-        <v>11610</v>
+        <v>1027</v>
       </c>
       <c r="BQ13">
-        <v>11763</v>
+        <v>1037</v>
       </c>
       <c r="BR13">
-        <v>11907</v>
+        <v>1048</v>
       </c>
       <c r="BS13">
-        <v>12051</v>
+        <v>1061</v>
       </c>
       <c r="BT13">
-        <v>12186</v>
+        <v>1069</v>
       </c>
       <c r="BU13">
-        <v>12321</v>
+        <v>1085</v>
       </c>
       <c r="BV13">
-        <v>12456</v>
+        <v>1099</v>
       </c>
       <c r="BW13">
-        <v>12591</v>
+        <v>1118</v>
       </c>
       <c r="BX13">
-        <v>12717</v>
+        <v>1129</v>
       </c>
       <c r="BY13">
-        <v>12852</v>
+        <v>1142</v>
       </c>
       <c r="BZ13">
-        <v>12987</v>
+        <v>1150</v>
       </c>
       <c r="CA13">
-        <v>13122</v>
+        <v>1157</v>
       </c>
       <c r="CB13">
-        <v>13266</v>
+        <v>1171</v>
       </c>
       <c r="CC13">
-        <v>13410</v>
+        <v>1181</v>
       </c>
       <c r="CD13">
-        <v>13554</v>
+        <v>1192</v>
       </c>
       <c r="CE13">
-        <v>13698</v>
+        <v>1205</v>
       </c>
       <c r="CF13">
-        <v>13842</v>
+        <v>1213</v>
       </c>
       <c r="CG13">
-        <v>13977</v>
+        <v>1220</v>
       </c>
       <c r="CH13">
-        <v>14103</v>
+        <v>1225</v>
       </c>
       <c r="CI13">
-        <v>14220</v>
+        <v>1235</v>
       </c>
       <c r="CJ13">
-        <v>14337</v>
+        <v>1246</v>
       </c>
       <c r="CK13">
-        <v>14454</v>
+        <v>1259</v>
       </c>
       <c r="CL13">
-        <v>14580</v>
+        <v>1276</v>
       </c>
       <c r="CM13">
-        <v>14715</v>
+        <v>1292</v>
       </c>
       <c r="CN13">
-        <v>14850</v>
+        <v>1306</v>
       </c>
       <c r="CO13">
-        <v>14985</v>
+        <v>1316</v>
       </c>
       <c r="CP13">
-        <v>15120</v>
+        <v>1327</v>
       </c>
       <c r="CQ13">
-        <v>15255</v>
+        <v>1340</v>
       </c>
       <c r="CR13">
-        <v>15390</v>
+        <v>1348</v>
       </c>
       <c r="CS13">
-        <v>15534</v>
+        <v>1364</v>
       </c>
       <c r="CT13">
-        <v>15687</v>
+        <v>1378</v>
       </c>
       <c r="CU13">
-        <v>15849</v>
+        <v>1397</v>
       </c>
       <c r="CV13">
-        <v>16020</v>
+        <v>1417</v>
       </c>
       <c r="CX13">
-        <f t="shared" si="0"/>
-        <v>817164</v>
+        <f t="shared" si="1"/>
+        <v>75333</v>
       </c>
       <c r="CY13">
         <f>SUM($CX$2:CX13)</f>
-        <v>1817085</v>
+        <v>817164</v>
+      </c>
+      <c r="DA13">
+        <f t="shared" si="0"/>
+        <v>182836</v>
       </c>
     </row>
-    <row r="14" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>604</v>
+        <v>109</v>
       </c>
       <c r="B14">
-        <v>713</v>
+        <v>119</v>
       </c>
       <c r="C14">
-        <v>832</v>
+        <v>130</v>
       </c>
       <c r="D14">
-        <v>953</v>
+        <v>134</v>
       </c>
       <c r="E14">
-        <v>1078</v>
+        <v>142</v>
       </c>
       <c r="F14">
-        <v>1202</v>
+        <v>149</v>
       </c>
       <c r="G14">
-        <v>1333</v>
+        <v>163</v>
       </c>
       <c r="H14">
-        <v>1469</v>
+        <v>173</v>
       </c>
       <c r="I14">
-        <v>1606</v>
+        <v>184</v>
       </c>
       <c r="J14">
-        <v>1745</v>
+        <v>197</v>
       </c>
       <c r="K14">
-        <v>1888</v>
+        <v>214</v>
       </c>
       <c r="L14">
-        <v>2030</v>
+        <v>221</v>
       </c>
       <c r="M14">
-        <v>2161</v>
+        <v>226</v>
       </c>
       <c r="N14">
-        <v>2288</v>
+        <v>236</v>
       </c>
       <c r="O14">
-        <v>2416</v>
+        <v>247</v>
       </c>
       <c r="P14">
-        <v>2546</v>
+        <v>260</v>
       </c>
       <c r="Q14">
-        <v>2680</v>
+        <v>268</v>
       </c>
       <c r="R14">
-        <v>2822</v>
+        <v>284</v>
       </c>
       <c r="S14">
-        <v>2971</v>
+        <v>298</v>
       </c>
       <c r="T14">
-        <v>3125</v>
+        <v>317</v>
       </c>
       <c r="U14">
-        <v>3280</v>
+        <v>328</v>
       </c>
       <c r="V14">
-        <v>3437</v>
+        <v>341</v>
       </c>
       <c r="W14">
-        <v>3589</v>
+        <v>349</v>
       </c>
       <c r="X14">
-        <v>3740</v>
+        <v>365</v>
       </c>
       <c r="Y14">
-        <v>3898</v>
+        <v>379</v>
       </c>
       <c r="Z14">
-        <v>4070</v>
+        <v>398</v>
       </c>
       <c r="AA14">
-        <v>4252</v>
+        <v>418</v>
       </c>
       <c r="AB14">
-        <v>4436</v>
+        <v>431</v>
       </c>
       <c r="AC14">
-        <v>4615</v>
+        <v>439</v>
       </c>
       <c r="AD14">
-        <v>4802</v>
+        <v>455</v>
       </c>
       <c r="AE14">
-        <v>4987</v>
+        <v>469</v>
       </c>
       <c r="AF14">
-        <v>5177</v>
+        <v>488</v>
       </c>
       <c r="AG14">
-        <v>5368</v>
+        <v>508</v>
       </c>
       <c r="AH14">
-        <v>5561</v>
+        <v>521</v>
       </c>
       <c r="AI14">
-        <v>5749</v>
+        <v>529</v>
       </c>
       <c r="AJ14">
-        <v>5945</v>
+        <v>545</v>
       </c>
       <c r="AK14">
-        <v>6139</v>
+        <v>559</v>
       </c>
       <c r="AL14">
-        <v>6338</v>
+        <v>578</v>
       </c>
       <c r="AM14">
-        <v>6538</v>
+        <v>598</v>
       </c>
       <c r="AN14">
-        <v>6740</v>
+        <v>620</v>
       </c>
       <c r="AO14">
-        <v>6937</v>
+        <v>628</v>
       </c>
       <c r="AP14">
-        <v>7142</v>
+        <v>644</v>
       </c>
       <c r="AQ14">
-        <v>7345</v>
+        <v>658</v>
       </c>
       <c r="AR14">
-        <v>7553</v>
+        <v>677</v>
       </c>
       <c r="AS14">
-        <v>7762</v>
+        <v>697</v>
       </c>
       <c r="AT14">
-        <v>7973</v>
+        <v>719</v>
       </c>
       <c r="AU14">
-        <v>8188</v>
+        <v>736</v>
       </c>
       <c r="AV14">
-        <v>8411</v>
+        <v>752</v>
       </c>
       <c r="AW14">
-        <v>8632</v>
+        <v>766</v>
       </c>
       <c r="AX14">
-        <v>8858</v>
+        <v>785</v>
       </c>
       <c r="AY14">
-        <v>9085</v>
+        <v>805</v>
       </c>
       <c r="AZ14">
-        <v>9305</v>
+        <v>818</v>
       </c>
       <c r="BA14">
-        <v>9520</v>
+        <v>835</v>
       </c>
       <c r="BB14">
-        <v>9743</v>
+        <v>851</v>
       </c>
       <c r="BC14">
-        <v>9964</v>
+        <v>865</v>
       </c>
       <c r="BD14">
-        <v>10190</v>
+        <v>884</v>
       </c>
       <c r="BE14">
-        <v>10417</v>
+        <v>904</v>
       </c>
       <c r="BF14">
-        <v>10637</v>
+        <v>917</v>
       </c>
       <c r="BG14">
-        <v>10852</v>
+        <v>934</v>
       </c>
       <c r="BH14">
-        <v>11066</v>
+        <v>950</v>
       </c>
       <c r="BI14">
-        <v>11278</v>
+        <v>964</v>
       </c>
       <c r="BJ14">
-        <v>11495</v>
+        <v>983</v>
       </c>
       <c r="BK14">
-        <v>11713</v>
+        <v>1003</v>
       </c>
       <c r="BL14">
-        <v>11915</v>
+        <v>1007</v>
       </c>
       <c r="BM14">
-        <v>12112</v>
+        <v>1015</v>
       </c>
       <c r="BN14">
-        <v>12299</v>
+        <v>1022</v>
       </c>
       <c r="BO14">
-        <v>12475</v>
+        <v>1027</v>
       </c>
       <c r="BP14">
-        <v>12647</v>
+        <v>1037</v>
       </c>
       <c r="BQ14">
-        <v>12811</v>
+        <v>1048</v>
       </c>
       <c r="BR14">
-        <v>12968</v>
+        <v>1061</v>
       </c>
       <c r="BS14">
-        <v>13120</v>
+        <v>1069</v>
       </c>
       <c r="BT14">
-        <v>13271</v>
+        <v>1085</v>
       </c>
       <c r="BU14">
-        <v>13420</v>
+        <v>1099</v>
       </c>
       <c r="BV14">
-        <v>13574</v>
+        <v>1118</v>
       </c>
       <c r="BW14">
-        <v>13720</v>
+        <v>1129</v>
       </c>
       <c r="BX14">
-        <v>13859</v>
+        <v>1142</v>
       </c>
       <c r="BY14">
-        <v>14002</v>
+        <v>1150</v>
       </c>
       <c r="BZ14">
-        <v>14144</v>
+        <v>1157</v>
       </c>
       <c r="CA14">
-        <v>14293</v>
+        <v>1171</v>
       </c>
       <c r="CB14">
-        <v>14447</v>
+        <v>1181</v>
       </c>
       <c r="CC14">
-        <v>14602</v>
+        <v>1192</v>
       </c>
       <c r="CD14">
-        <v>14759</v>
+        <v>1205</v>
       </c>
       <c r="CE14">
-        <v>14911</v>
+        <v>1213</v>
       </c>
       <c r="CF14">
-        <v>15062</v>
+        <v>1220</v>
       </c>
       <c r="CG14">
-        <v>15202</v>
+        <v>1225</v>
       </c>
       <c r="CH14">
-        <v>15338</v>
+        <v>1235</v>
       </c>
       <c r="CI14">
-        <v>15466</v>
+        <v>1246</v>
       </c>
       <c r="CJ14">
-        <v>15596</v>
+        <v>1259</v>
       </c>
       <c r="CK14">
-        <v>15730</v>
+        <v>1276</v>
       </c>
       <c r="CL14">
-        <v>15872</v>
+        <v>1292</v>
       </c>
       <c r="CM14">
-        <v>16021</v>
+        <v>1306</v>
       </c>
       <c r="CN14">
-        <v>16166</v>
+        <v>1316</v>
       </c>
       <c r="CO14">
-        <v>16312</v>
+        <v>1327</v>
       </c>
       <c r="CP14">
-        <v>16460</v>
+        <v>1340</v>
       </c>
       <c r="CQ14">
-        <v>16603</v>
+        <v>1348</v>
       </c>
       <c r="CR14">
-        <v>16754</v>
+        <v>1364</v>
       </c>
       <c r="CS14">
-        <v>16912</v>
+        <v>1378</v>
       </c>
       <c r="CT14">
-        <v>17084</v>
+        <v>1397</v>
       </c>
       <c r="CU14">
-        <v>17266</v>
+        <v>1417</v>
       </c>
       <c r="CV14">
-        <v>17450</v>
+        <v>1430</v>
       </c>
       <c r="CX14">
-        <f t="shared" si="0"/>
-        <v>893832</v>
+        <f t="shared" si="1"/>
+        <v>76668</v>
       </c>
       <c r="CY14">
         <f>SUM($CX$2:CX14)</f>
-        <v>2710917</v>
+        <v>893832</v>
+      </c>
+      <c r="DA14">
+        <f t="shared" si="0"/>
+        <v>106168</v>
       </c>
     </row>
-    <row r="15" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>723</v>
+        <v>119</v>
       </c>
       <c r="B15">
-        <v>843</v>
+        <v>130</v>
       </c>
       <c r="C15">
-        <v>966</v>
+        <v>134</v>
       </c>
       <c r="D15">
-        <v>1095</v>
+        <v>142</v>
       </c>
       <c r="E15">
-        <v>1227</v>
+        <v>149</v>
       </c>
       <c r="F15">
-        <v>1365</v>
+        <v>163</v>
       </c>
       <c r="G15">
-        <v>1506</v>
+        <v>173</v>
       </c>
       <c r="H15">
-        <v>1653</v>
+        <v>184</v>
       </c>
       <c r="I15">
-        <v>1803</v>
+        <v>197</v>
       </c>
       <c r="J15">
-        <v>1959</v>
+        <v>214</v>
       </c>
       <c r="K15">
-        <v>2109</v>
+        <v>221</v>
       </c>
       <c r="L15">
-        <v>2256</v>
+        <v>226</v>
       </c>
       <c r="M15">
-        <v>2397</v>
+        <v>236</v>
       </c>
       <c r="N15">
-        <v>2535</v>
+        <v>247</v>
       </c>
       <c r="O15">
-        <v>2676</v>
+        <v>260</v>
       </c>
       <c r="P15">
-        <v>2814</v>
+        <v>268</v>
       </c>
       <c r="Q15">
-        <v>2964</v>
+        <v>284</v>
       </c>
       <c r="R15">
-        <v>3120</v>
+        <v>298</v>
       </c>
       <c r="S15">
-        <v>3288</v>
+        <v>317</v>
       </c>
       <c r="T15">
-        <v>3453</v>
+        <v>328</v>
       </c>
       <c r="U15">
-        <v>3621</v>
+        <v>341</v>
       </c>
       <c r="V15">
-        <v>3786</v>
+        <v>349</v>
       </c>
       <c r="W15">
-        <v>3954</v>
+        <v>365</v>
       </c>
       <c r="X15">
-        <v>4119</v>
+        <v>379</v>
       </c>
       <c r="Y15">
-        <v>4296</v>
+        <v>398</v>
       </c>
       <c r="Z15">
-        <v>4488</v>
+        <v>418</v>
       </c>
       <c r="AA15">
-        <v>4683</v>
+        <v>431</v>
       </c>
       <c r="AB15">
-        <v>4875</v>
+        <v>439</v>
       </c>
       <c r="AC15">
-        <v>5070</v>
+        <v>455</v>
       </c>
       <c r="AD15">
-        <v>5271</v>
+        <v>469</v>
       </c>
       <c r="AE15">
-        <v>5475</v>
+        <v>488</v>
       </c>
       <c r="AF15">
-        <v>5685</v>
+        <v>508</v>
       </c>
       <c r="AG15">
-        <v>5889</v>
+        <v>521</v>
       </c>
       <c r="AH15">
-        <v>6090</v>
+        <v>529</v>
       </c>
       <c r="AI15">
-        <v>6294</v>
+        <v>545</v>
       </c>
       <c r="AJ15">
-        <v>6504</v>
+        <v>559</v>
       </c>
       <c r="AK15">
-        <v>6717</v>
+        <v>578</v>
       </c>
       <c r="AL15">
-        <v>6936</v>
+        <v>598</v>
       </c>
       <c r="AM15">
-        <v>7158</v>
+        <v>620</v>
       </c>
       <c r="AN15">
-        <v>7368</v>
+        <v>628</v>
       </c>
       <c r="AO15">
-        <v>7581</v>
+        <v>644</v>
       </c>
       <c r="AP15">
-        <v>7800</v>
+        <v>658</v>
       </c>
       <c r="AQ15">
-        <v>8022</v>
+        <v>677</v>
       </c>
       <c r="AR15">
-        <v>8250</v>
+        <v>697</v>
       </c>
       <c r="AS15">
-        <v>8481</v>
+        <v>719</v>
       </c>
       <c r="AT15">
-        <v>8709</v>
+        <v>736</v>
       </c>
       <c r="AU15">
-        <v>8940</v>
+        <v>752</v>
       </c>
       <c r="AV15">
-        <v>9177</v>
+        <v>766</v>
       </c>
       <c r="AW15">
-        <v>9417</v>
+        <v>785</v>
       </c>
       <c r="AX15">
-        <v>9663</v>
+        <v>805</v>
       </c>
       <c r="AY15">
-        <v>9903</v>
+        <v>818</v>
       </c>
       <c r="AZ15">
-        <v>10140</v>
+        <v>835</v>
       </c>
       <c r="BA15">
-        <v>10371</v>
+        <v>851</v>
       </c>
       <c r="BB15">
-        <v>10608</v>
+        <v>865</v>
       </c>
       <c r="BC15">
-        <v>10848</v>
+        <v>884</v>
       </c>
       <c r="BD15">
-        <v>11094</v>
+        <v>904</v>
       </c>
       <c r="BE15">
-        <v>11334</v>
+        <v>917</v>
       </c>
       <c r="BF15">
-        <v>11571</v>
+        <v>934</v>
       </c>
       <c r="BG15">
-        <v>11802</v>
+        <v>950</v>
       </c>
       <c r="BH15">
-        <v>12030</v>
+        <v>964</v>
       </c>
       <c r="BI15">
-        <v>12261</v>
+        <v>983</v>
       </c>
       <c r="BJ15">
-        <v>12498</v>
+        <v>1003</v>
       </c>
       <c r="BK15">
-        <v>12720</v>
+        <v>1007</v>
       </c>
       <c r="BL15">
-        <v>12930</v>
+        <v>1015</v>
       </c>
       <c r="BM15">
-        <v>13134</v>
+        <v>1022</v>
       </c>
       <c r="BN15">
-        <v>13326</v>
+        <v>1027</v>
       </c>
       <c r="BO15">
-        <v>13512</v>
+        <v>1037</v>
       </c>
       <c r="BP15">
-        <v>13695</v>
+        <v>1048</v>
       </c>
       <c r="BQ15">
-        <v>13872</v>
+        <v>1061</v>
       </c>
       <c r="BR15">
-        <v>14037</v>
+        <v>1069</v>
       </c>
       <c r="BS15">
-        <v>14205</v>
+        <v>1085</v>
       </c>
       <c r="BT15">
-        <v>14370</v>
+        <v>1099</v>
       </c>
       <c r="BU15">
-        <v>14538</v>
+        <v>1118</v>
       </c>
       <c r="BV15">
-        <v>14703</v>
+        <v>1129</v>
       </c>
       <c r="BW15">
-        <v>14862</v>
+        <v>1142</v>
       </c>
       <c r="BX15">
-        <v>15009</v>
+        <v>1150</v>
       </c>
       <c r="BY15">
-        <v>15159</v>
+        <v>1157</v>
       </c>
       <c r="BZ15">
-        <v>15315</v>
+        <v>1171</v>
       </c>
       <c r="CA15">
-        <v>15474</v>
+        <v>1181</v>
       </c>
       <c r="CB15">
-        <v>15639</v>
+        <v>1192</v>
       </c>
       <c r="CC15">
-        <v>15807</v>
+        <v>1205</v>
       </c>
       <c r="CD15">
-        <v>15972</v>
+        <v>1213</v>
       </c>
       <c r="CE15">
-        <v>16131</v>
+        <v>1220</v>
       </c>
       <c r="CF15">
-        <v>16287</v>
+        <v>1225</v>
       </c>
       <c r="CG15">
-        <v>16437</v>
+        <v>1235</v>
       </c>
       <c r="CH15">
-        <v>16584</v>
+        <v>1246</v>
       </c>
       <c r="CI15">
-        <v>16725</v>
+        <v>1259</v>
       </c>
       <c r="CJ15">
-        <v>16872</v>
+        <v>1276</v>
       </c>
       <c r="CK15">
-        <v>17022</v>
+        <v>1292</v>
       </c>
       <c r="CL15">
-        <v>17178</v>
+        <v>1306</v>
       </c>
       <c r="CM15">
-        <v>17337</v>
+        <v>1316</v>
       </c>
       <c r="CN15">
-        <v>17493</v>
+        <v>1327</v>
       </c>
       <c r="CO15">
-        <v>17652</v>
+        <v>1340</v>
       </c>
       <c r="CP15">
-        <v>17808</v>
+        <v>1348</v>
       </c>
       <c r="CQ15">
-        <v>17967</v>
+        <v>1364</v>
       </c>
       <c r="CR15">
-        <v>18132</v>
+        <v>1378</v>
       </c>
       <c r="CS15">
-        <v>18309</v>
+        <v>1397</v>
       </c>
       <c r="CT15">
-        <v>18501</v>
+        <v>1417</v>
       </c>
       <c r="CU15">
-        <v>18696</v>
+        <v>1430</v>
       </c>
       <c r="CV15">
-        <v>18888</v>
+        <v>1438</v>
       </c>
       <c r="CX15">
-        <f t="shared" si="0"/>
-        <v>971829</v>
+        <f t="shared" si="1"/>
+        <v>77997</v>
       </c>
       <c r="CY15">
         <f>SUM($CX$2:CX15)</f>
-        <v>3682746</v>
+        <v>971829</v>
+      </c>
+      <c r="DA15">
+        <f t="shared" si="0"/>
+        <v>28171</v>
       </c>
     </row>
-    <row r="16" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>853</v>
+        <v>130</v>
       </c>
       <c r="B16">
-        <v>977</v>
+        <v>134</v>
       </c>
       <c r="C16">
-        <v>1108</v>
+        <v>142</v>
       </c>
       <c r="D16">
-        <v>1244</v>
+        <v>149</v>
       </c>
       <c r="E16">
-        <v>1390</v>
+        <v>163</v>
       </c>
       <c r="F16">
-        <v>1538</v>
+        <v>173</v>
       </c>
       <c r="G16">
-        <v>1690</v>
+        <v>184</v>
       </c>
       <c r="H16">
-        <v>1850</v>
+        <v>197</v>
       </c>
       <c r="I16">
-        <v>2017</v>
+        <v>214</v>
       </c>
       <c r="J16">
-        <v>2180</v>
+        <v>221</v>
       </c>
       <c r="K16">
-        <v>2335</v>
+        <v>226</v>
       </c>
       <c r="L16">
-        <v>2492</v>
+        <v>236</v>
       </c>
       <c r="M16">
-        <v>2644</v>
+        <v>247</v>
       </c>
       <c r="N16">
-        <v>2795</v>
+        <v>260</v>
       </c>
       <c r="O16">
-        <v>2944</v>
+        <v>268</v>
       </c>
       <c r="P16">
-        <v>3098</v>
+        <v>284</v>
       </c>
       <c r="Q16">
-        <v>3262</v>
+        <v>298</v>
       </c>
       <c r="R16">
-        <v>3437</v>
+        <v>317</v>
       </c>
       <c r="S16">
-        <v>3616</v>
+        <v>328</v>
       </c>
       <c r="T16">
-        <v>3794</v>
+        <v>341</v>
       </c>
       <c r="U16">
-        <v>3970</v>
+        <v>349</v>
       </c>
       <c r="V16">
-        <v>4151</v>
+        <v>365</v>
       </c>
       <c r="W16">
-        <v>4333</v>
+        <v>379</v>
       </c>
       <c r="X16">
-        <v>4517</v>
+        <v>398</v>
       </c>
       <c r="Y16">
-        <v>4714</v>
+        <v>418</v>
       </c>
       <c r="Z16">
-        <v>4919</v>
+        <v>431</v>
       </c>
       <c r="AA16">
-        <v>5122</v>
+        <v>439</v>
       </c>
       <c r="AB16">
-        <v>5330</v>
+        <v>455</v>
       </c>
       <c r="AC16">
-        <v>5539</v>
+        <v>469</v>
       </c>
       <c r="AD16">
-        <v>5759</v>
+        <v>488</v>
       </c>
       <c r="AE16">
-        <v>5983</v>
+        <v>508</v>
       </c>
       <c r="AF16">
-        <v>6206</v>
+        <v>521</v>
       </c>
       <c r="AG16">
-        <v>6418</v>
+        <v>529</v>
       </c>
       <c r="AH16">
-        <v>6635</v>
+        <v>545</v>
       </c>
       <c r="AI16">
-        <v>6853</v>
+        <v>559</v>
       </c>
       <c r="AJ16">
-        <v>7082</v>
+        <v>578</v>
       </c>
       <c r="AK16">
-        <v>7315</v>
+        <v>598</v>
       </c>
       <c r="AL16">
-        <v>7556</v>
+        <v>620</v>
       </c>
       <c r="AM16">
-        <v>7786</v>
+        <v>628</v>
       </c>
       <c r="AN16">
-        <v>8012</v>
+        <v>644</v>
       </c>
       <c r="AO16">
-        <v>8239</v>
+        <v>658</v>
       </c>
       <c r="AP16">
-        <v>8477</v>
+        <v>677</v>
       </c>
       <c r="AQ16">
-        <v>8719</v>
+        <v>697</v>
       </c>
       <c r="AR16">
-        <v>8969</v>
+        <v>719</v>
       </c>
       <c r="AS16">
-        <v>9217</v>
+        <v>736</v>
       </c>
       <c r="AT16">
-        <v>9461</v>
+        <v>752</v>
       </c>
       <c r="AU16">
-        <v>9706</v>
+        <v>766</v>
       </c>
       <c r="AV16">
-        <v>9962</v>
+        <v>785</v>
       </c>
       <c r="AW16">
-        <v>10222</v>
+        <v>805</v>
       </c>
       <c r="AX16">
-        <v>10481</v>
+        <v>818</v>
       </c>
       <c r="AY16">
-        <v>10738</v>
+        <v>835</v>
       </c>
       <c r="AZ16">
-        <v>10991</v>
+        <v>851</v>
       </c>
       <c r="BA16">
-        <v>11236</v>
+        <v>865</v>
       </c>
       <c r="BB16">
-        <v>11492</v>
+        <v>884</v>
       </c>
       <c r="BC16">
-        <v>11752</v>
+        <v>904</v>
       </c>
       <c r="BD16">
-        <v>12011</v>
+        <v>917</v>
       </c>
       <c r="BE16">
-        <v>12268</v>
-      </c>
-      <c r="BF16">
-        <v>11571</v>
-      </c>
-      <c r="BG16">
-        <v>11802</v>
-      </c>
-      <c r="BH16">
-        <v>12030</v>
-      </c>
-      <c r="BI16">
-        <v>12261</v>
-      </c>
-      <c r="BJ16">
-        <v>12498</v>
-      </c>
-      <c r="BK16">
-        <v>12720</v>
-      </c>
-      <c r="BL16">
-        <v>12930</v>
-      </c>
-      <c r="BM16">
-        <v>13134</v>
-      </c>
-      <c r="BN16">
-        <v>13326</v>
-      </c>
-      <c r="BO16">
-        <v>13512</v>
-      </c>
-      <c r="BP16">
-        <v>13695</v>
-      </c>
-      <c r="BQ16">
-        <v>13872</v>
-      </c>
-      <c r="BR16">
-        <v>14037</v>
-      </c>
-      <c r="BS16">
-        <v>14205</v>
-      </c>
-      <c r="BT16">
-        <v>14370</v>
-      </c>
-      <c r="BU16">
-        <v>14538</v>
-      </c>
-      <c r="BV16">
-        <v>14703</v>
-      </c>
-      <c r="BW16">
-        <v>14862</v>
-      </c>
-      <c r="BX16">
-        <v>15009</v>
-      </c>
-      <c r="BY16">
-        <v>15159</v>
-      </c>
-      <c r="BZ16">
-        <v>15315</v>
-      </c>
-      <c r="CA16">
-        <v>15474</v>
-      </c>
-      <c r="CB16">
-        <v>15639</v>
-      </c>
-      <c r="CC16">
-        <v>15807</v>
-      </c>
-      <c r="CD16">
-        <v>15972</v>
-      </c>
-      <c r="CE16">
-        <v>16131</v>
-      </c>
-      <c r="CF16">
-        <v>16287</v>
-      </c>
-      <c r="CG16">
-        <v>16437</v>
-      </c>
-      <c r="CH16">
-        <v>16584</v>
-      </c>
-      <c r="CI16">
-        <v>16725</v>
-      </c>
-      <c r="CJ16">
-        <v>16872</v>
-      </c>
-      <c r="CK16">
-        <v>17022</v>
-      </c>
-      <c r="CL16">
-        <v>17178</v>
-      </c>
-      <c r="CM16">
-        <v>17337</v>
-      </c>
-      <c r="CN16">
-        <v>17493</v>
-      </c>
-      <c r="CO16">
-        <v>17652</v>
-      </c>
-      <c r="CP16">
-        <v>17808</v>
-      </c>
-      <c r="CQ16">
-        <v>17967</v>
-      </c>
-      <c r="CR16">
-        <v>18132</v>
-      </c>
-      <c r="CS16">
-        <v>18309</v>
-      </c>
-      <c r="CT16">
-        <v>18501</v>
-      </c>
-      <c r="CU16">
-        <v>18696</v>
-      </c>
-      <c r="CV16">
-        <v>18888</v>
+        <v>934</v>
       </c>
       <c r="CX16">
-        <f t="shared" si="0"/>
-        <v>999865</v>
+        <f t="shared" si="1"/>
+        <v>28036</v>
       </c>
       <c r="CY16">
         <f>SUM($CX$2:CX16)</f>
-        <v>4682611</v>
+        <v>999865</v>
+      </c>
+      <c r="DA16">
+        <f t="shared" si="0"/>
+        <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>987</v>
+        <v>134</v>
       </c>
       <c r="CX17">
-        <f t="shared" si="0"/>
-        <v>987</v>
+        <f t="shared" si="1"/>
+        <v>134</v>
       </c>
       <c r="CY17">
         <f>SUM($CX$2:CX17)</f>
-        <v>4683598</v>
-      </c>
+        <v>999999</v>
+      </c>
+      <c r="DA17" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="DB17" s="1"/>
     </row>
-    <row r="19" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="18" spans="1:106" x14ac:dyDescent="0.25">
+      <c r="DA18" s="1"/>
+      <c r="DB18" s="1"/>
+    </row>
+    <row r="19" spans="1:106" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" ref="A19:BL19" si="2">SUM(A2:A18)</f>
+        <v>987</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="2"/>
+        <v>977</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>1108</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>1244</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>1390</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>1538</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>1690</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>1850</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>2017</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>2180</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="2"/>
+        <v>2335</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="2"/>
+        <v>2492</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="2"/>
+        <v>2644</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="2"/>
+        <v>2795</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="2"/>
+        <v>2944</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="2"/>
+        <v>3098</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="2"/>
+        <v>3262</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="2"/>
+        <v>3437</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="2"/>
+        <v>3616</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="2"/>
+        <v>3794</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="2"/>
+        <v>3970</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="2"/>
+        <v>4151</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="2"/>
+        <v>4333</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="2"/>
+        <v>4517</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="2"/>
+        <v>4714</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="2"/>
+        <v>4919</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="2"/>
+        <v>5122</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="2"/>
+        <v>5330</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="2"/>
+        <v>5539</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="2"/>
+        <v>5759</v>
+      </c>
+      <c r="AE19">
+        <f t="shared" si="2"/>
+        <v>5983</v>
+      </c>
+      <c r="AF19">
+        <f t="shared" si="2"/>
+        <v>6206</v>
+      </c>
+      <c r="AG19">
+        <f t="shared" si="2"/>
+        <v>6418</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" si="2"/>
+        <v>6635</v>
+      </c>
+      <c r="AI19">
+        <f t="shared" si="2"/>
+        <v>6853</v>
+      </c>
+      <c r="AJ19">
+        <f t="shared" si="2"/>
+        <v>7082</v>
+      </c>
+      <c r="AK19">
+        <f t="shared" si="2"/>
+        <v>7315</v>
+      </c>
+      <c r="AL19">
+        <f t="shared" si="2"/>
+        <v>7556</v>
+      </c>
+      <c r="AM19">
+        <f t="shared" si="2"/>
+        <v>7786</v>
+      </c>
+      <c r="AN19">
+        <f t="shared" si="2"/>
+        <v>8012</v>
+      </c>
+      <c r="AO19">
+        <f t="shared" si="2"/>
+        <v>8239</v>
+      </c>
+      <c r="AP19">
+        <f t="shared" si="2"/>
+        <v>8477</v>
+      </c>
+      <c r="AQ19">
+        <f t="shared" si="2"/>
+        <v>8719</v>
+      </c>
+      <c r="AR19">
+        <f t="shared" si="2"/>
+        <v>8969</v>
+      </c>
+      <c r="AS19">
+        <f t="shared" si="2"/>
+        <v>9217</v>
+      </c>
+      <c r="AT19">
+        <f t="shared" si="2"/>
+        <v>9461</v>
+      </c>
+      <c r="AU19">
+        <f t="shared" si="2"/>
+        <v>9706</v>
+      </c>
+      <c r="AV19">
+        <f t="shared" si="2"/>
+        <v>9962</v>
+      </c>
+      <c r="AW19">
+        <f t="shared" si="2"/>
+        <v>10222</v>
+      </c>
+      <c r="AX19">
+        <f t="shared" si="2"/>
+        <v>10481</v>
+      </c>
+      <c r="AY19">
+        <f t="shared" si="2"/>
+        <v>10738</v>
+      </c>
+      <c r="AZ19">
+        <f t="shared" si="2"/>
+        <v>10991</v>
+      </c>
+      <c r="BA19">
+        <f t="shared" si="2"/>
+        <v>11236</v>
+      </c>
+      <c r="BB19">
+        <f t="shared" si="2"/>
+        <v>11492</v>
+      </c>
+      <c r="BC19">
+        <f t="shared" si="2"/>
+        <v>11752</v>
+      </c>
+      <c r="BD19">
+        <f t="shared" si="2"/>
+        <v>12011</v>
+      </c>
+      <c r="BE19">
+        <f t="shared" si="2"/>
+        <v>12268</v>
+      </c>
+      <c r="BF19">
+        <f t="shared" si="2"/>
+        <v>11571</v>
+      </c>
+      <c r="BG19">
+        <f t="shared" si="2"/>
+        <v>11802</v>
+      </c>
+      <c r="BH19">
+        <f t="shared" si="2"/>
+        <v>12030</v>
+      </c>
+      <c r="BI19">
+        <f t="shared" si="2"/>
+        <v>12261</v>
+      </c>
+      <c r="BJ19">
+        <f t="shared" si="2"/>
+        <v>12498</v>
+      </c>
+      <c r="BK19">
+        <f t="shared" si="2"/>
+        <v>12720</v>
+      </c>
+      <c r="BL19">
+        <f t="shared" si="2"/>
+        <v>12930</v>
+      </c>
+      <c r="BM19">
+        <f t="shared" ref="BM19:CU19" si="3">SUM(BM2:BM18)</f>
+        <v>13134</v>
+      </c>
+      <c r="BN19">
+        <f t="shared" si="3"/>
+        <v>13326</v>
+      </c>
+      <c r="BO19">
+        <f t="shared" si="3"/>
+        <v>13512</v>
+      </c>
+      <c r="BP19">
+        <f t="shared" si="3"/>
+        <v>13695</v>
+      </c>
+      <c r="BQ19">
+        <f t="shared" si="3"/>
+        <v>13872</v>
+      </c>
+      <c r="BR19">
+        <f t="shared" si="3"/>
+        <v>14037</v>
+      </c>
+      <c r="BS19">
+        <f t="shared" si="3"/>
+        <v>14205</v>
+      </c>
+      <c r="BT19">
+        <f t="shared" si="3"/>
+        <v>14370</v>
+      </c>
+      <c r="BU19">
+        <f t="shared" si="3"/>
+        <v>14538</v>
+      </c>
+      <c r="BV19">
+        <f t="shared" si="3"/>
+        <v>14703</v>
+      </c>
+      <c r="BW19">
+        <f t="shared" si="3"/>
+        <v>14862</v>
+      </c>
+      <c r="BX19">
+        <f t="shared" si="3"/>
+        <v>15009</v>
+      </c>
+      <c r="BY19">
+        <f t="shared" si="3"/>
+        <v>15159</v>
+      </c>
+      <c r="BZ19">
+        <f t="shared" si="3"/>
+        <v>15315</v>
+      </c>
+      <c r="CA19">
+        <f t="shared" si="3"/>
+        <v>15474</v>
+      </c>
+      <c r="CB19">
+        <f t="shared" si="3"/>
+        <v>15639</v>
+      </c>
+      <c r="CC19">
+        <f t="shared" si="3"/>
+        <v>15807</v>
+      </c>
+      <c r="CD19">
+        <f t="shared" si="3"/>
+        <v>15972</v>
+      </c>
+      <c r="CE19">
+        <f t="shared" si="3"/>
+        <v>16131</v>
+      </c>
+      <c r="CF19">
+        <f t="shared" si="3"/>
+        <v>16287</v>
+      </c>
+      <c r="CG19">
+        <f t="shared" si="3"/>
+        <v>16437</v>
+      </c>
+      <c r="CH19">
+        <f t="shared" si="3"/>
+        <v>16584</v>
+      </c>
+      <c r="CI19">
+        <f t="shared" si="3"/>
+        <v>16725</v>
+      </c>
+      <c r="CJ19">
+        <f t="shared" si="3"/>
+        <v>16872</v>
+      </c>
+      <c r="CK19">
+        <f t="shared" si="3"/>
+        <v>17022</v>
+      </c>
+      <c r="CL19">
+        <f t="shared" si="3"/>
+        <v>17178</v>
+      </c>
+      <c r="CM19">
+        <f t="shared" si="3"/>
+        <v>17337</v>
+      </c>
+      <c r="CN19">
+        <f t="shared" si="3"/>
+        <v>17493</v>
+      </c>
+      <c r="CO19">
+        <f t="shared" si="3"/>
+        <v>17652</v>
+      </c>
+      <c r="CP19">
+        <f t="shared" si="3"/>
+        <v>17808</v>
+      </c>
+      <c r="CQ19">
+        <f t="shared" si="3"/>
+        <v>17967</v>
+      </c>
+      <c r="CR19">
+        <f t="shared" si="3"/>
+        <v>18132</v>
+      </c>
+      <c r="CS19">
+        <f t="shared" si="3"/>
+        <v>18309</v>
+      </c>
+      <c r="CT19">
+        <f t="shared" si="3"/>
+        <v>18501</v>
+      </c>
+      <c r="CU19">
+        <f t="shared" si="3"/>
+        <v>18696</v>
+      </c>
+      <c r="CV19" s="3">
+        <f>SUM(CV2:CV18)</f>
+        <v>18888</v>
+      </c>
+      <c r="CY19">
+        <f>SUM(A19:CX19)</f>
+        <v>999999</v>
+      </c>
+      <c r="DA19" s="1"/>
+      <c r="DB19" s="1"/>
+    </row>
+    <row r="20" spans="1:106" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="CV20" s="3"/>
+      <c r="CX20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DA20" s="1"/>
+      <c r="DB20" s="1"/>
+    </row>
+    <row r="21" spans="1:106" x14ac:dyDescent="0.25">
+      <c r="CV21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="DA21" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="DB21" s="1"/>
+    </row>
+    <row r="22" spans="1:106" x14ac:dyDescent="0.25">
+      <c r="CV22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="CW22" s="2">
+        <v>16</v>
+      </c>
+      <c r="CX22" s="2">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
